--- a/sample-data-fx.xlsx
+++ b/sample-data-fx.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Excel\Excel-function-and-formulas-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF3BA4-F850-46FA-8E39-FE8C9ACCB126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B75531-E3BE-4F31-936B-CDBBBB1C5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$17:$M$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +40,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
@@ -49,16 +53,30 @@
       </extLst>
     </bk>
   </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="794">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2377,6 +2395,189 @@
   </si>
   <si>
     <t>Fixed Term head count</t>
+  </si>
+  <si>
+    <r>
+      <t>DIPARTMENT BASED CALCULATIONS: [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNTIFS, SUMIFS,AVERAGEIFS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALL EMPLOYEES WITH SALARY GREATER THAN 100 K :(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER, =STAFF[HEADERS]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>COLUMNS 1,2,3,5,6: NAMES, DIPARTMENT, SLARAY</t>
+  </si>
+  <si>
+    <r>
+      <t>ALL EMPLOYEES WITH SALARY GREATER THAN 100 K COLUMN :(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, =STAFF[HEADERS],CHOOSECOLS)</t>
+    </r>
+  </si>
+  <si>
+    <t>NOT WORKING IN THIS EXCEL THE FORMULA IS =CHOOSECOLS(FILTER(staff,staff[Salary]&gt;=F67),1,2,3,5,6)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEMALE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EMPLOYEES WITH SALARY GREATER THAN 100 K  :(FILTER [MULTIPLE CONDITION], =STAFF[HEADERS],CHOOSECOLS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ALL </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEMALE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> EMPLOYEES WITH SALARY GREATER THAN 100 K AND JOINED AFTER 2019  :(FILTER [MULTIPLE CONDITION], =STAFF[HEADERS],CHOOSECOLS)</t>
+    </r>
+  </si>
+  <si>
+    <t>ALL EMP</t>
+  </si>
+  <si>
+    <t>LOWEST SALARY</t>
+  </si>
+  <si>
+    <t>HIGHEST SALARY</t>
+  </si>
+  <si>
+    <t>TOP 5 SALARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest, highest and top 5 salary values: (MIN, MAX, LARGE, MINIFS) </t>
+  </si>
+  <si>
+    <t>TAKE DOESN’T WORK IN THIS EXCEL SO EQ IS =TAKE(SORT(staff[Salary],,-1),5)</t>
+  </si>
+  <si>
+    <t>count :</t>
+  </si>
+  <si>
+    <t>Employee details lookup: (VLOOKUP, INDEX + MATCH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emp ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP 5 SALARY (diff func) </t>
+  </si>
+  <si>
+    <t>Employee details lookup: (XLOOKUP, IFERROR)</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>With xlookup</t>
+  </si>
+  <si>
+    <t>No employes so blank</t>
   </si>
 </sst>
 </file>
@@ -2388,7 +2589,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2438,8 +2639,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2476,8 +2755,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2534,12 +2825,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2610,6 +2925,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2749,6 +3106,64 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>13</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3075,7 +3490,7 @@
   <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4547,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:O267"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15287,360 +15702,4161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145AB91-9B7A-4E90-B667-24217E8EC446}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:S278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:17" ht="28.8">
+      <c r="A1" s="34" t="s">
+        <v>773</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B2" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D2" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
         <v>36</v>
-      </c>
-      <c r="B2">
-        <f>COUNTIF(staff[Department],A2)</f>
-        <v>24</v>
-      </c>
-      <c r="C2" s="27" cm="1">
-        <f t="array" ref="C2:C13">SUMIFS(staff[Salary],staff[Department],A2:A13)</f>
-        <v>2013215.1600000001</v>
-      </c>
-      <c r="D2" s="27">
-        <f>AVERAGEIFS(staff[Salary],staff[Department],A2)</f>
-        <v>83883.965000000011</v>
-      </c>
-      <c r="E2">
-        <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A2)</f>
-        <v>11</v>
-      </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2:F13">COUNTIFS(staff[Employee type],"Temporary",staff[Department],A2:A13)</f>
-        <v>7</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2:G13">COUNTIFS(staff[Employee type],"Fixed Term",staff[Department],A2:A13)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>25</v>
       </c>
       <c r="B3">
         <f>COUNTIF(staff[Department],A3)</f>
-        <v>26</v>
-      </c>
-      <c r="C3" s="27">
-        <v>2074326.9500000002</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="27" cm="1">
+        <f t="array" ref="C3:C14">SUMIFS(staff[Salary],staff[Department],A3:A14)</f>
+        <v>2013215.1600000001</v>
       </c>
       <c r="D3" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A3)</f>
-        <v>79781.805769230778</v>
+        <v>83883.965000000011</v>
       </c>
       <c r="E3">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A3)</f>
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3:F14">COUNTIFS(staff[Employee type],"Temporary",staff[Department],A3:A14)</f>
+        <v>7</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3:G14">COUNTIFS(staff[Employee type],"Fixed Term",staff[Department],A3:A14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <f>COUNTIF(staff[Department],A4)</f>
         <v>26</v>
       </c>
       <c r="C4" s="27">
-        <v>2131387.4899999998</v>
+        <v>2074326.9500000002</v>
       </c>
       <c r="D4" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A4)</f>
-        <v>81976.441923076913</v>
+        <v>79781.805769230778</v>
       </c>
       <c r="E4">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A4)</f>
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>54</v>
       </c>
       <c r="B5">
         <f>COUNTIF(staff[Department],A5)</f>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5" s="27">
-        <v>773295.6</v>
+        <v>2131387.4899999998</v>
       </c>
       <c r="D5" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A5)</f>
-        <v>64441.299999999996</v>
+        <v>81976.441923076913</v>
       </c>
       <c r="E5">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A5)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <f>COUNTIF(staff[Department],A6)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6" s="27">
-        <v>1412092.87</v>
+        <v>773295.6</v>
       </c>
       <c r="D6" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A6)</f>
-        <v>67242.51761904762</v>
+        <v>64441.299999999996</v>
       </c>
       <c r="E6">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A6)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <f>COUNTIF(staff[Department],A7)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="27">
-        <v>1814980.59</v>
+        <v>1412092.87</v>
       </c>
       <c r="D7" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A7)</f>
-        <v>69806.945769230777</v>
+        <v>67242.51761904762</v>
       </c>
       <c r="E7">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A7)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <f>COUNTIF(staff[Department],A8)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" s="27">
-        <v>1608406.3100000003</v>
+        <v>1814980.59</v>
       </c>
       <c r="D8" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A8)</f>
-        <v>73109.377727272746</v>
+        <v>69806.945769230777</v>
       </c>
       <c r="E8">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A8)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <f>COUNTIF(staff[Department],A9)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="27">
-        <v>1204393.78</v>
+        <v>1608406.3100000003</v>
       </c>
       <c r="D9" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A9)</f>
-        <v>66910.765555555554</v>
+        <v>73109.377727272746</v>
       </c>
       <c r="E9">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A9)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <f>COUNTIF(staff[Department],A10)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="27">
-        <v>1568153.47</v>
+        <v>1204393.78</v>
       </c>
       <c r="D10" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A10)</f>
-        <v>74673.974761904756</v>
+        <v>66910.765555555554</v>
       </c>
       <c r="E10">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A10)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <f>COUNTIF(staff[Department],A11)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" s="27">
-        <v>2180192.8699999992</v>
+        <v>1568153.47</v>
       </c>
       <c r="D11" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A11)</f>
-        <v>75179.064482758593</v>
+        <v>74673.974761904756</v>
       </c>
       <c r="E11">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A11)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="B12">
         <f>COUNTIF(staff[Department],A12)</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C12" s="27">
-        <v>1129351.75</v>
+        <v>2180192.8699999992</v>
       </c>
       <c r="D12" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A12)</f>
-        <v>66432.455882352937</v>
+        <v>75179.064482758593</v>
       </c>
       <c r="E12">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A12)</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
       <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <f>COUNTIF(staff[Department],A13)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="27">
-        <v>1294147.72</v>
+        <v>1129351.75</v>
       </c>
       <c r="D13" s="27">
         <f>AVERAGEIFS(staff[Salary],staff[Department],A13)</f>
-        <v>71897.095555555556</v>
+        <v>66432.455882352937</v>
       </c>
       <c r="E13">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A13)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(staff[Department],A14)</f>
+        <v>18</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1294147.72</v>
+      </c>
+      <c r="D14" s="27">
+        <f>AVERAGEIFS(staff[Salary],staff[Department],A14)</f>
+        <v>71897.095555555556</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A14)</f>
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="28.8">
+      <c r="A16" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.4" customHeight="1">
+      <c r="A17" s="37" t="str" cm="1">
+        <f t="array" ref="A17:M17">staff[#Headers]</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="B17" s="37" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="C17" s="37" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="D17" s="37" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="E17" s="37" t="str">
+        <v>Department</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="G17" s="37" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="H17" s="37" t="str">
+        <v>Start Date</v>
+      </c>
+      <c r="I17" s="37" t="str">
+        <v>FTE</v>
+      </c>
+      <c r="J17" s="37" t="str">
+        <v>Employee type</v>
+      </c>
+      <c r="K17" s="37" t="str">
+        <v>Work location</v>
+      </c>
+      <c r="L17" s="37" t="str">
+        <v>Tenure</v>
+      </c>
+      <c r="M17" s="37" t="str">
+        <v>Work Type</v>
+      </c>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="str" cm="1">
+        <f t="array" ref="A18:M64">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;=100000)</f>
+        <v>PR00147</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Minerva</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Ricardot</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F18">
+        <v>120000</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H18" s="36">
+        <v>43416</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L18">
+        <v>5.6109589041095891</v>
+      </c>
+      <c r="M18" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="F19">
+        <v>114177.23</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H19" s="36">
+        <v>43908</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L19">
+        <v>4.2630136986301368</v>
+      </c>
+      <c r="M19" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="str">
+        <v>PR01159</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Mollie</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Hanway</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F20">
+        <v>112645.99</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H20" s="36">
+        <v>43759</v>
+      </c>
+      <c r="I20">
+        <v>0.6</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="L20">
+        <v>4.6712328767123283</v>
+      </c>
+      <c r="M20" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="str">
+        <v>PR02010</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Prerana</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Nishita</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F21">
+        <v>115191.38</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H21" s="36">
+        <v>44004</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="str">
+        <v>PR02208</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Gowri</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Sankar</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F22">
+        <v>102934.09</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H22" s="36">
+        <v>44315</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="L22">
+        <v>3.1479452054794521</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="str">
+        <v>PR02288</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Althea</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Bronger</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F23">
+        <v>104335.03999999999</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H23" s="36">
+        <v>43874</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L23">
+        <v>4.3561643835616435</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="str">
+        <v>PR03886</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Edd</v>
+      </c>
+      <c r="C24" t="str">
+        <v>MacKnockiter</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="F24">
+        <v>119022.49</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H24" s="36">
+        <v>44431</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L24">
+        <v>2.8301369863013699</v>
+      </c>
+      <c r="M24" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="str">
+        <v>PR04601</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Yedukondalu</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Panditula</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Need to check</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Support</v>
+      </c>
+      <c r="F25">
+        <v>104802.63</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H25" s="36">
+        <v>44502</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="L25">
+        <v>2.6356164383561644</v>
+      </c>
+      <c r="M25" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Demke</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="F26">
+        <v>110042.37</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H26" s="36">
+        <v>43914</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L26">
+        <v>4.2465753424657535</v>
+      </c>
+      <c r="M26" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="str">
+        <v>SQ00144</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Collen</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Dunbleton</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F27">
+        <v>118976.16</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H27" s="36">
+        <v>44120</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L27">
+        <v>3.6821917808219178</v>
+      </c>
+      <c r="M27" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="str">
+        <v>SQ00498</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Amery</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Ofer</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="F28">
+        <v>111049.84</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H28" s="36">
+        <v>44393</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L28">
+        <v>2.9342465753424656</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="str">
+        <v>SQ01620</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Westbrook</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Brandino</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="F29">
+        <v>113616.23</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H29" s="36">
+        <v>43255</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K29" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L29">
+        <v>6.0520547945205481</v>
+      </c>
+      <c r="M29" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Izzard</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="F30">
+        <v>103494.94</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H30" s="36">
+        <v>43256</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L30">
+        <v>6.0493150684931507</v>
+      </c>
+      <c r="M30" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="str">
+        <v>SQ02035</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Anni</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Izzard</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="F31">
+        <v>103494.94</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H31" s="36">
+        <v>43256</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K31" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L31">
+        <v>6.0493150684931507</v>
+      </c>
+      <c r="M31" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F32">
+        <v>118442.54</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H32" s="36">
+        <v>44193</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L32">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="M32" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="str">
+        <v>SQ02624</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Gwenneth</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Fealey</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F33">
+        <v>114772.32</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H33" s="36">
+        <v>44251</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L33">
+        <v>3.3232876712328765</v>
+      </c>
+      <c r="M33" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="str">
+        <v>SQ02703</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Deepit</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Ranjana</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="F34">
+        <v>104903.79</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H34" s="36">
+        <v>43649</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L34">
+        <v>4.9726027397260273</v>
+      </c>
+      <c r="M34" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="str">
+        <v>SQ03116</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Syd</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Fearn</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F35">
+        <v>108872.77</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H35" s="36">
+        <v>43521</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L35">
+        <v>5.3232876712328769</v>
+      </c>
+      <c r="M35" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="str">
+        <v>SQ03387</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Robinia</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Scholling</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="F36">
+        <v>100731.95</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H36" s="36">
+        <v>43936</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L36">
+        <v>4.1863013698630134</v>
+      </c>
+      <c r="M36" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="str">
+        <v>SQ03476</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Ramalingam</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Kothapeta</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Need to check</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="F37">
+        <v>107107.6</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H37" s="36">
+        <v>43325</v>
+      </c>
+      <c r="I37">
+        <v>0.9</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L37">
+        <v>5.86027397260274</v>
+      </c>
+      <c r="M37" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="F38">
+        <v>102129.37</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H38" s="36">
+        <v>44396</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L38">
+        <v>2.9260273972602739</v>
+      </c>
+      <c r="M38" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="str">
+        <v>SQ03733</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Revkah</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Antonacci</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F39">
+        <v>109143.17</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H39" s="36">
+        <v>43945</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K39" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L39">
+        <v>4.161643835616438</v>
+      </c>
+      <c r="M39" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="str">
+        <v>SQ04603</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Natalee</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Craiker</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F40">
+        <v>111229.47</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H40" s="36">
+        <v>43402</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K40" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L40">
+        <v>5.6493150684931503</v>
+      </c>
+      <c r="M40" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F41">
+        <v>120000</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H41" s="36">
+        <v>43902</v>
+      </c>
+      <c r="I41">
+        <v>0.9</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K41" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L41">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="M41" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="str">
+        <v>SQ04665</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Collin</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Jagson</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F42">
+        <v>100424.23</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H42" s="36">
+        <v>43801</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K42" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L42">
+        <v>4.5561643835616437</v>
+      </c>
+      <c r="M42" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="str">
+        <v>TN00579</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Rafaelita</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Blaksland</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F43">
+        <v>109163.39</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H43" s="36">
+        <v>44019</v>
+      </c>
+      <c r="I43">
+        <v>0.8</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Seattle, USA</v>
+      </c>
+      <c r="L43">
+        <v>3.9589041095890409</v>
+      </c>
+      <c r="M43" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="C44" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F44">
+        <v>114425.19</v>
+      </c>
+      <c r="G44" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H44" s="36">
+        <v>43857</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L44">
+        <v>4.4027397260273968</v>
+      </c>
+      <c r="M44" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Subbarao</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Malladi</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F45">
+        <v>106775.14</v>
+      </c>
+      <c r="G45" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H45" s="36">
+        <v>43563</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K45" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="L45">
+        <v>5.2082191780821914</v>
+      </c>
+      <c r="M45" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="str">
+        <v>TN04058</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Vasu</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Nandin</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F46">
+        <v>106775.14</v>
+      </c>
+      <c r="G46" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H46" s="36">
+        <v>43563</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K46" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="L46">
+        <v>5.2082191780821914</v>
+      </c>
+      <c r="M46" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Support</v>
+      </c>
+      <c r="F47">
+        <v>100371.31</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H47" s="36">
+        <v>44067</v>
+      </c>
+      <c r="I47">
+        <v>0.8</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K47" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L47">
+        <v>3.8273972602739725</v>
+      </c>
+      <c r="M47" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Cuming</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Support</v>
+      </c>
+      <c r="F48">
+        <v>104038.9</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H48" s="36">
+        <v>43815</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K48" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L48">
+        <v>4.5178082191780824</v>
+      </c>
+      <c r="M48" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="str">
+        <v>VT01684</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Audry</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Yu</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F49">
+        <v>101187.36</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H49" s="36">
+        <v>43258</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L49">
+        <v>6.043835616438356</v>
+      </c>
+      <c r="M49" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="F50">
+        <v>102515.81</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H50" s="36">
+        <v>43902</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K50" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L50">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="M50" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Guillet</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F51">
+        <v>112778.28</v>
+      </c>
+      <c r="G51" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H51" s="36">
+        <v>43250</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K51" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L51">
+        <v>6.065753424657534</v>
+      </c>
+      <c r="M51" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="str">
+        <v>VT01893</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Lindy</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Guillet</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F52">
+        <v>112778.28</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H52" s="36">
+        <v>43250</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="str">
+        <v>Fixed Term</v>
+      </c>
+      <c r="K52" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L52">
+        <v>6.065753424657534</v>
+      </c>
+      <c r="M52" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="str">
+        <v>VT02491</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Alexis</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Gotfrey</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F53">
+        <v>114465.93</v>
+      </c>
+      <c r="G53" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H53" s="36">
+        <v>43291</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L53">
+        <v>5.9534246575342467</v>
+      </c>
+      <c r="M53" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="str">
+        <v>VT02801</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Shellysheldon</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Mahady</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F54">
+        <v>114691.03</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H54" s="36">
+        <v>44039</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K54" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L54">
+        <v>3.904109589041096</v>
+      </c>
+      <c r="M54" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="F55">
+        <v>113747.56</v>
+      </c>
+      <c r="G55" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H55" s="36">
+        <v>44270</v>
+      </c>
+      <c r="I55">
+        <v>0.7</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K55" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L55">
+        <v>3.2712328767123289</v>
+      </c>
+      <c r="M55" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="F56">
+        <v>113747.56</v>
+      </c>
+      <c r="G56" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H56" s="36">
+        <v>44270</v>
+      </c>
+      <c r="I56">
+        <v>0.7</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K56" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L56">
+        <v>3.2712328767123289</v>
+      </c>
+      <c r="M56" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F57">
+        <v>111815.49</v>
+      </c>
+      <c r="G57" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H57" s="36">
+        <v>43895</v>
+      </c>
+      <c r="I57">
+        <v>0.7</v>
+      </c>
+      <c r="J57" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L57">
+        <v>4.2986301369863016</v>
+      </c>
+      <c r="M57" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F58">
+        <v>111815.49</v>
+      </c>
+      <c r="G58" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H58" s="36">
+        <v>43895</v>
+      </c>
+      <c r="I58">
+        <v>0.7</v>
+      </c>
+      <c r="J58" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K58" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L58">
+        <v>4.2986301369863016</v>
+      </c>
+      <c r="M58" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F59">
+        <v>116767.63</v>
+      </c>
+      <c r="G59" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H59" s="36">
+        <v>43949</v>
+      </c>
+      <c r="I59">
+        <v>0.4</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K59" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L59">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="M59" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F60">
+        <v>116767.63</v>
+      </c>
+      <c r="G60" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H60" s="36">
+        <v>43949</v>
+      </c>
+      <c r="I60">
+        <v>0.4</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K60" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L60">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="M60" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Kulbhushan</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Moorthy</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="F61">
+        <v>106400.02</v>
+      </c>
+      <c r="G61" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H61" s="36">
+        <v>44021</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K61" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L61">
+        <v>3.9534246575342467</v>
+      </c>
+      <c r="M61" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="str">
+        <v>VT04350</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Lalit</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Kothari</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="F62">
+        <v>106400.02</v>
+      </c>
+      <c r="G62" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H62" s="36">
+        <v>44021</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K62" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L62">
+        <v>3.9534246575342467</v>
+      </c>
+      <c r="M62" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Chasmer</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F63">
+        <v>106665.67</v>
+      </c>
+      <c r="G63" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H63" s="36">
+        <v>43311</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K63" t="str">
+        <v>Columbus, USA</v>
+      </c>
+      <c r="L63">
+        <v>5.8986301369863012</v>
+      </c>
+      <c r="M63" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="str">
+        <v>VT04681</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Nickolai</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Artin</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F64">
+        <v>110906.35</v>
+      </c>
+      <c r="G64" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H64" s="36">
+        <v>43434</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K64" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L64">
+        <v>5.5616438356164384</v>
+      </c>
+      <c r="M64" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="H65" s="36"/>
+    </row>
+    <row r="66" spans="1:13" ht="18">
+      <c r="A66" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="45" t="s">
+        <v>777</v>
+      </c>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="B67" s="28" t="s">
+        <v>775</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="44">
+        <v>115000</v>
+      </c>
+      <c r="H67" s="36"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="42" t="str" cm="1">
+        <f t="array" ref="A68:M68">staff[#Headers]</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="B68" s="42" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="C68" s="42" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="D68" s="42" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="E68" s="42" t="str">
+        <v>Department</v>
+      </c>
+      <c r="F68" s="42" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="G68" s="42" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="H68" s="43" t="str">
+        <v>Start Date</v>
+      </c>
+      <c r="I68" s="42" t="str">
+        <v>FTE</v>
+      </c>
+      <c r="J68" s="42" t="str">
+        <v>Employee type</v>
+      </c>
+      <c r="K68" s="42" t="str">
+        <v>Work location</v>
+      </c>
+      <c r="L68" s="42" t="str">
+        <v>Tenure</v>
+      </c>
+      <c r="M68" s="42" t="str">
+        <v>Work Type</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="36" t="str" cm="1">
+        <f t="array" ref="A69:M76">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;=F67)</f>
+        <v>PR00147</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Minerva</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Ricardot</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F69">
+        <v>120000</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H69" s="36">
+        <v>43416</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L69">
+        <v>5.6109589041095891</v>
+      </c>
+      <c r="M69" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="str">
+        <v>PR02010</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Prerana</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Nishita</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="F70">
+        <v>115191.38</v>
+      </c>
+      <c r="G70" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H70" s="36">
+        <v>44004</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Hyderabad, India</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="str">
+        <v>PR03886</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Edd</v>
+      </c>
+      <c r="C71" t="str">
+        <v>MacKnockiter</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="F71">
+        <v>119022.49</v>
+      </c>
+      <c r="G71" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H71" s="36">
+        <v>44431</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L71">
+        <v>2.8301369863013699</v>
+      </c>
+      <c r="M71" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="str">
+        <v>SQ00144</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Collen</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Dunbleton</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Male</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F72">
+        <v>118976.16</v>
+      </c>
+      <c r="G72" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H72" s="36">
+        <v>44120</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K72" t="str">
+        <v>Wellington, New Zealand</v>
+      </c>
+      <c r="L72">
+        <v>3.6821917808219178</v>
+      </c>
+      <c r="M72" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F73">
+        <v>118442.54</v>
+      </c>
+      <c r="G73" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H73" s="36">
+        <v>44193</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K73" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L73">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="M73" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F74">
+        <v>120000</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H74" s="36">
+        <v>43902</v>
+      </c>
+      <c r="I74">
+        <v>0.9</v>
+      </c>
+      <c r="J74" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L74">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="M74" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F75">
+        <v>116767.63</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H75" s="36">
+        <v>43949</v>
+      </c>
+      <c r="I75">
+        <v>0.4</v>
+      </c>
+      <c r="J75" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K75" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L75">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="M75" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F76">
+        <v>116767.63</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H76" s="36">
+        <v>43949</v>
+      </c>
+      <c r="I76">
+        <v>0.4</v>
+      </c>
+      <c r="J76" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K76" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L76">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="M76" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="H77" s="36"/>
+    </row>
+    <row r="78" spans="1:13" ht="21">
+      <c r="A78" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="42" t="str" cm="1">
+        <f t="array" ref="A79:M79">staff[#Headers]</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="B79" s="42" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="C79" s="42" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="D79" s="42" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="E79" s="42" t="str">
+        <v>Department</v>
+      </c>
+      <c r="F79" s="42" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="G79" s="42" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="H79" s="43" t="str">
+        <v>Start Date</v>
+      </c>
+      <c r="I79" s="42" t="str">
+        <v>FTE</v>
+      </c>
+      <c r="J79" s="42" t="str">
+        <v>Employee type</v>
+      </c>
+      <c r="K79" s="42" t="str">
+        <v>Work location</v>
+      </c>
+      <c r="L79" s="42" t="str">
+        <v>Tenure</v>
+      </c>
+      <c r="M79" s="42" t="str">
+        <v>Work Type</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" t="str" cm="1">
+        <f t="array" ref="A80:F83">_xlfn._xlws.FILTER(staff[[Emp ID]:[Salary]],(staff[Salary]&gt;F67)*(staff[Gender]="Female"))</f>
+        <v>SQ02174</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F80">
+        <v>118442.54</v>
+      </c>
+      <c r="H80" s="36"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F81">
+        <v>120000</v>
+      </c>
+      <c r="H81" s="36"/>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F82">
+        <v>116767.63</v>
+      </c>
+      <c r="H82" s="36"/>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F83">
+        <v>116767.63</v>
+      </c>
+      <c r="H83" s="36"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="H84" s="36"/>
+    </row>
+    <row r="85" spans="1:15" ht="21">
+      <c r="A85" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="42" t="str" cm="1">
+        <f t="array" ref="A86:M86">staff[#Headers]</f>
+        <v>Emp ID</v>
+      </c>
+      <c r="B86" s="42" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="C86" s="42" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="D86" s="42" t="str">
+        <v>Gender</v>
+      </c>
+      <c r="E86" s="42" t="str">
+        <v>Department</v>
+      </c>
+      <c r="F86" s="42" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="G86" s="42" t="str">
+        <v>Salary Bucket</v>
+      </c>
+      <c r="H86" s="43" t="str">
+        <v>Start Date</v>
+      </c>
+      <c r="I86" s="42" t="str">
+        <v>FTE</v>
+      </c>
+      <c r="J86" s="42" t="str">
+        <v>Employee type</v>
+      </c>
+      <c r="K86" s="42" t="str">
+        <v>Work location</v>
+      </c>
+      <c r="L86" s="42" t="str">
+        <v>Tenure</v>
+      </c>
+      <c r="M86" s="42" t="str">
+        <v>Work Type</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="str" cm="1">
+        <f t="array" ref="A87:M90">_xlfn._xlws.FILTER(staff[],(staff[Salary]&gt;F67)*(staff[Gender]="Female")*(staff[Start Date] &gt; DATE(2019,12,31)))</f>
+        <v>SQ02174</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="F87">
+        <v>118442.54</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H87" s="36">
+        <v>44193</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K87" t="str">
+        <v>Auckland, New Zealand</v>
+      </c>
+      <c r="L87">
+        <v>3.4821917808219176</v>
+      </c>
+      <c r="M87" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Services</v>
+      </c>
+      <c r="F88">
+        <v>120000</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H88" s="36">
+        <v>43902</v>
+      </c>
+      <c r="I88">
+        <v>0.9</v>
+      </c>
+      <c r="J88" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="K88" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="L88">
+        <v>4.279452054794521</v>
+      </c>
+      <c r="M88" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Prasanna</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Lakshmi</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E89" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F89">
+        <v>116767.63</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H89" s="36">
+        <v>43949</v>
+      </c>
+      <c r="I89">
+        <v>0.4</v>
+      </c>
+      <c r="J89" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K89" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L89">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="M89" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="str">
+        <v>VT04093</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Baruna</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Ogale</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Female</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Training</v>
+      </c>
+      <c r="F90">
+        <v>116767.63</v>
+      </c>
+      <c r="G90" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="H90" s="36">
+        <v>43949</v>
+      </c>
+      <c r="I90">
+        <v>0.4</v>
+      </c>
+      <c r="J90" t="str">
+        <v>Temporary</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Chennai, India</v>
+      </c>
+      <c r="L90">
+        <v>4.1506849315068495</v>
+      </c>
+      <c r="M90" t="str">
+        <v>Part time</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="H91" s="36"/>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="H92" s="36"/>
+    </row>
+    <row r="93" spans="1:15" ht="25.8">
+      <c r="A93" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="H94" s="36"/>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="B95" s="42" t="s">
+        <v>780</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="36"/>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B96" s="46">
+        <f>MIN(staff[Salary])</f>
+        <v>28160.79</v>
+      </c>
+      <c r="C96" s="46">
+        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],C95)</f>
+        <v>28160.79</v>
+      </c>
+      <c r="D96" s="46">
+        <f>_xlfn.MINIFS(staff[Salary],staff[Gender],D95)</f>
+        <v>28305.08</v>
+      </c>
+      <c r="H96" s="36"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B97" s="46">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+      <c r="C97" s="46">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],C95)</f>
+        <v>120000</v>
+      </c>
+      <c r="D97" s="46">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],D95)</f>
+        <v>120000</v>
+      </c>
+      <c r="H97" s="36"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B98" s="46">
+        <f>LARGE(staff[Salary],E98)</f>
+        <v>120000</v>
+      </c>
+      <c r="C98" s="46" cm="1">
+        <f t="array" ref="C98">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E98)</f>
+        <v>120000</v>
+      </c>
+      <c r="D98" s="46" cm="1">
+        <f t="array" ref="D98">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]=D95),E98)</f>
+        <v>120000</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="H98" s="36"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="B99" s="46">
+        <f>LARGE(staff[Salary],E99)</f>
+        <v>120000</v>
+      </c>
+      <c r="C99" s="46" cm="1">
+        <f t="array" ref="C99">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E99)</f>
+        <v>119022.49</v>
+      </c>
+      <c r="D99" s="46" cm="1">
+        <f t="array" ref="D99">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E99)</f>
+        <v>118442.54</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="H99" s="36"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="B100" s="46">
+        <f>LARGE(staff[Salary],E100)</f>
+        <v>119022.49</v>
+      </c>
+      <c r="C100" s="46" cm="1">
+        <f t="array" ref="C100">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E100)</f>
+        <v>118976.16</v>
+      </c>
+      <c r="D100" s="46" cm="1">
+        <f t="array" ref="D100">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E100)</f>
+        <v>116767.63</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="H100" s="36"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" s="46">
+        <f>LARGE(staff[Salary],E101)</f>
+        <v>118976.16</v>
+      </c>
+      <c r="C101" s="46" cm="1">
+        <f t="array" ref="C101">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E101)</f>
+        <v>115191.38</v>
+      </c>
+      <c r="D101" s="46" cm="1">
+        <f t="array" ref="D101">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E101)</f>
+        <v>116767.63</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="H101" s="36"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" s="46">
+        <f>LARGE(staff[Salary],E102)</f>
+        <v>118442.54</v>
+      </c>
+      <c r="C102" s="46" cm="1">
+        <f t="array" ref="C102">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E102)</f>
+        <v>114691.03</v>
+      </c>
+      <c r="D102" s="46" cm="1">
+        <f t="array" ref="D102">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E102)</f>
+        <v>114772.32</v>
+      </c>
+      <c r="E102">
+        <v>5</v>
+      </c>
+      <c r="H102" s="36"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="H103" s="36"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="H104" s="36"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>789</v>
+      </c>
+      <c r="B105" s="46" t="e" cm="1">
+        <f t="array" aca="1" ref="B105" ca="1">TAKE(_xlfn._xlws.SORT(staff[Salary],,-1),5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="H105" s="36"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="H106" s="36"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="H107" s="36"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="H108" s="36"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="H109" s="36"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="H110" s="36"/>
+    </row>
+    <row r="111" spans="1:8" ht="21">
+      <c r="A111" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="H111" s="36"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="H112" s="36"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>786</v>
+      </c>
+      <c r="C113">
+        <f>COUNTA(_xlfn.ANCHORARRAY(A114))</f>
+        <v>12</v>
+      </c>
+      <c r="H113" s="36"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="str" cm="1">
+        <f t="array" ref="A114:A125">_xlfn.UNIQUE(staff[Department])</f>
+        <v>Training</v>
+      </c>
+      <c r="B114" t="str">
+        <f>_xlfn.TEXTJOIN(", ",TRUE,_xlfn.ANCHORARRAY(A114))</f>
+        <v>Training, Business Development, Engineering, Marketing, Legal, Accounting, Human Resources, Research and Development, Services, Product Management, Support, Sales</v>
+      </c>
+      <c r="H114" s="36"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="H115" s="36"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="H116" s="36"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="H117" s="36"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="H118" s="36"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="H119" s="36"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="H120" s="36"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="H121" s="36"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="str">
+        <v>Services</v>
+      </c>
+      <c r="H122" s="36"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="H123" s="36"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="str">
+        <v>Support</v>
+      </c>
+      <c r="H124" s="36"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="H125" s="36"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="H126" s="36"/>
+    </row>
+    <row r="127" spans="1:8" ht="23.4">
+      <c r="A127" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="H127" s="36"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>788</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="H128" s="36"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="H129" s="36"/>
+    </row>
+    <row r="130" spans="1:19" ht="15" thickBot="1">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="49" t="str">
+        <f>IFERROR(VLOOKUP($B$128,staff[],C130,FALSE),"Not Found")</f>
+        <v>Edd</v>
+      </c>
+      <c r="C130" s="51">
+        <v>2</v>
+      </c>
+      <c r="D130" t="str">
+        <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[First Name],"Not Found",0,1)</f>
+        <v>Edd</v>
+      </c>
+      <c r="H130" s="36"/>
+    </row>
+    <row r="131" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="49" t="str">
+        <f>IFERROR(VLOOKUP($B$128,staff[],C131,FALSE),"Not Found")</f>
+        <v>MacKnockiter</v>
+      </c>
+      <c r="C131" s="51">
+        <v>3</v>
+      </c>
+      <c r="H131" s="36"/>
+    </row>
+    <row r="132" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="49" t="str">
+        <f>IFERROR(VLOOKUP($B$128,staff[],C132,FALSE),"Not Found")</f>
+        <v>Accounting</v>
+      </c>
+      <c r="C132" s="51">
+        <v>5</v>
+      </c>
+      <c r="H132" s="36"/>
+    </row>
+    <row r="133" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="49">
+        <f>IFERROR(VLOOKUP($B$128,staff[],C133,FALSE),"Not Found")</f>
+        <v>119022.49</v>
+      </c>
+      <c r="C133" s="51">
+        <v>6</v>
+      </c>
+      <c r="H133" s="36"/>
+    </row>
+    <row r="134" spans="1:19" ht="15" thickTop="1">
+      <c r="H134" s="36"/>
+    </row>
+    <row r="135" spans="1:19" ht="23.4">
+      <c r="A135" s="31" t="s">
+        <v>790</v>
+      </c>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="H135" s="36"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="H136" s="36"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" t="s">
+        <v>791</v>
+      </c>
+      <c r="B137" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" s="50"/>
+      <c r="E137" s="41" t="s">
+        <v>792</v>
+      </c>
+      <c r="G137" s="41" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="B138">
+        <f>MATCH(B137,staff[Last Name],0)</f>
+        <v>43</v>
+      </c>
+      <c r="G138" t="str" cm="1">
+        <f t="array" ref="G138:S138">_xlfn.XLOOKUP(B137,staff[Last Name],staff[])</f>
+        <v>PR03532</v>
+      </c>
+      <c r="H138" t="str">
+        <v>Crawford</v>
+      </c>
+      <c r="I138" t="str">
+        <v>Scad</v>
+      </c>
+      <c r="J138" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K138" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="L138">
+        <v>72876.91</v>
+      </c>
+      <c r="M138" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N138">
+        <v>43837</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="R138">
+        <v>4.4575342465753423</v>
+      </c>
+      <c r="S138" t="str">
+        <v>Full time</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15" thickBot="1">
+      <c r="A139" t="s">
+        <v>788</v>
+      </c>
+      <c r="B139" s="49" t="str" cm="1">
+        <f t="array" ref="B139">INDEX(staff[Emp ID],B138)</f>
+        <v>PR03532</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" t="str">
+        <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[First Name],"Not Found")</f>
+        <v>Edd</v>
+      </c>
+      <c r="G139" t="str" cm="1">
+        <f t="array" ref="G139:G151">TRANSPOSE(_xlfn.XLOOKUP(B137,staff[Last Name],staff[]))</f>
+        <v>PR03532</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="49" t="str" cm="1">
+        <f t="array" ref="B140">INDEX(staff[Department],B138)</f>
+        <v>Human Resources</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" t="str">
+        <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[Last Name],"Not Found")</f>
+        <v>MacKnockiter</v>
+      </c>
+      <c r="G140" t="str">
+        <v>Crawford</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="49" cm="1">
+        <f t="array" ref="B141">INDEX(staff[Salary],B138)</f>
+        <v>72876.91</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" t="str">
+        <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[Department],"Not Found")</f>
+        <v>Accounting</v>
+      </c>
+      <c r="G141" t="str">
+        <v>Scad</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="15" thickTop="1">
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[Salary],"Not Found",0,1)</f>
+        <v>119022.49</v>
+      </c>
+      <c r="G142" t="str">
+        <v>Male</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="G143" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="H143" s="36"/>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="G144">
+        <v>72876.91</v>
+      </c>
+      <c r="H144" s="36"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="G145" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="H145" s="36"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="G146">
+        <v>43837</v>
+      </c>
+      <c r="H146" s="36"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" s="36"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="G148" t="str">
+        <v>Permanent</v>
+      </c>
+      <c r="H148" s="36"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="G149" t="str">
+        <v>Remote</v>
+      </c>
+      <c r="H149" s="36"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="G150">
+        <v>4.4575342465753423</v>
+      </c>
+      <c r="H150" s="36"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="G151" t="str">
+        <v>Full time</v>
+      </c>
+      <c r="H151" s="36"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="e" cm="1" vm="1">
+        <f t="array" ref="A152">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;120000)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B152" t="s">
+        <v>793</v>
+      </c>
+      <c r="H152" s="36"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="H153" s="36"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="H154" s="36"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="H155" s="36"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="H156" s="36"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="H157" s="36"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="H158" s="36"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="H159" s="36"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="H160" s="36"/>
+    </row>
+    <row r="161" spans="8:8">
+      <c r="H161" s="36"/>
+    </row>
+    <row r="162" spans="8:8">
+      <c r="H162" s="36"/>
+    </row>
+    <row r="163" spans="8:8">
+      <c r="H163" s="36"/>
+    </row>
+    <row r="164" spans="8:8">
+      <c r="H164" s="36"/>
+    </row>
+    <row r="165" spans="8:8">
+      <c r="H165" s="36"/>
+    </row>
+    <row r="166" spans="8:8">
+      <c r="H166" s="36"/>
+    </row>
+    <row r="167" spans="8:8">
+      <c r="H167" s="36"/>
+    </row>
+    <row r="168" spans="8:8">
+      <c r="H168" s="36"/>
+    </row>
+    <row r="169" spans="8:8">
+      <c r="H169" s="36"/>
+    </row>
+    <row r="170" spans="8:8">
+      <c r="H170" s="36"/>
+    </row>
+    <row r="171" spans="8:8">
+      <c r="H171" s="36"/>
+    </row>
+    <row r="172" spans="8:8">
+      <c r="H172" s="36"/>
+    </row>
+    <row r="173" spans="8:8">
+      <c r="H173" s="36"/>
+    </row>
+    <row r="174" spans="8:8">
+      <c r="H174" s="36"/>
+    </row>
+    <row r="175" spans="8:8">
+      <c r="H175" s="36"/>
+    </row>
+    <row r="176" spans="8:8">
+      <c r="H176" s="36"/>
+    </row>
+    <row r="177" spans="8:8">
+      <c r="H177" s="36"/>
+    </row>
+    <row r="178" spans="8:8">
+      <c r="H178" s="36"/>
+    </row>
+    <row r="179" spans="8:8">
+      <c r="H179" s="36"/>
+    </row>
+    <row r="180" spans="8:8">
+      <c r="H180" s="36"/>
+    </row>
+    <row r="181" spans="8:8">
+      <c r="H181" s="36"/>
+    </row>
+    <row r="182" spans="8:8">
+      <c r="H182" s="36"/>
+    </row>
+    <row r="183" spans="8:8">
+      <c r="H183" s="36"/>
+    </row>
+    <row r="184" spans="8:8">
+      <c r="H184" s="36"/>
+    </row>
+    <row r="185" spans="8:8">
+      <c r="H185" s="36"/>
+    </row>
+    <row r="186" spans="8:8">
+      <c r="H186" s="36"/>
+    </row>
+    <row r="187" spans="8:8">
+      <c r="H187" s="36"/>
+    </row>
+    <row r="188" spans="8:8">
+      <c r="H188" s="36"/>
+    </row>
+    <row r="189" spans="8:8">
+      <c r="H189" s="36"/>
+    </row>
+    <row r="190" spans="8:8">
+      <c r="H190" s="36"/>
+    </row>
+    <row r="191" spans="8:8">
+      <c r="H191" s="36"/>
+    </row>
+    <row r="192" spans="8:8">
+      <c r="H192" s="36"/>
+    </row>
+    <row r="193" spans="8:8">
+      <c r="H193" s="36"/>
+    </row>
+    <row r="194" spans="8:8">
+      <c r="H194" s="36"/>
+    </row>
+    <row r="195" spans="8:8">
+      <c r="H195" s="36"/>
+    </row>
+    <row r="196" spans="8:8">
+      <c r="H196" s="36"/>
+    </row>
+    <row r="197" spans="8:8">
+      <c r="H197" s="36"/>
+    </row>
+    <row r="198" spans="8:8">
+      <c r="H198" s="36"/>
+    </row>
+    <row r="199" spans="8:8">
+      <c r="H199" s="36"/>
+    </row>
+    <row r="200" spans="8:8">
+      <c r="H200" s="36"/>
+    </row>
+    <row r="201" spans="8:8">
+      <c r="H201" s="36"/>
+    </row>
+    <row r="202" spans="8:8">
+      <c r="H202" s="36"/>
+    </row>
+    <row r="203" spans="8:8">
+      <c r="H203" s="36"/>
+    </row>
+    <row r="204" spans="8:8">
+      <c r="H204" s="36"/>
+    </row>
+    <row r="205" spans="8:8">
+      <c r="H205" s="36"/>
+    </row>
+    <row r="206" spans="8:8">
+      <c r="H206" s="36"/>
+    </row>
+    <row r="207" spans="8:8">
+      <c r="H207" s="36"/>
+    </row>
+    <row r="208" spans="8:8">
+      <c r="H208" s="36"/>
+    </row>
+    <row r="209" spans="8:8">
+      <c r="H209" s="36"/>
+    </row>
+    <row r="210" spans="8:8">
+      <c r="H210" s="36"/>
+    </row>
+    <row r="211" spans="8:8">
+      <c r="H211" s="36"/>
+    </row>
+    <row r="212" spans="8:8">
+      <c r="H212" s="36"/>
+    </row>
+    <row r="213" spans="8:8">
+      <c r="H213" s="36"/>
+    </row>
+    <row r="214" spans="8:8">
+      <c r="H214" s="36"/>
+    </row>
+    <row r="215" spans="8:8">
+      <c r="H215" s="36"/>
+    </row>
+    <row r="216" spans="8:8">
+      <c r="H216" s="36"/>
+    </row>
+    <row r="217" spans="8:8">
+      <c r="H217" s="36"/>
+    </row>
+    <row r="218" spans="8:8">
+      <c r="H218" s="36"/>
+    </row>
+    <row r="219" spans="8:8">
+      <c r="H219" s="36"/>
+    </row>
+    <row r="220" spans="8:8">
+      <c r="H220" s="36"/>
+    </row>
+    <row r="221" spans="8:8">
+      <c r="H221" s="36"/>
+    </row>
+    <row r="222" spans="8:8">
+      <c r="H222" s="36"/>
+    </row>
+    <row r="223" spans="8:8">
+      <c r="H223" s="36"/>
+    </row>
+    <row r="224" spans="8:8">
+      <c r="H224" s="36"/>
+    </row>
+    <row r="225" spans="8:8">
+      <c r="H225" s="36"/>
+    </row>
+    <row r="226" spans="8:8">
+      <c r="H226" s="36"/>
+    </row>
+    <row r="227" spans="8:8">
+      <c r="H227" s="36"/>
+    </row>
+    <row r="228" spans="8:8">
+      <c r="H228" s="36"/>
+    </row>
+    <row r="229" spans="8:8">
+      <c r="H229" s="36"/>
+    </row>
+    <row r="230" spans="8:8">
+      <c r="H230" s="36"/>
+    </row>
+    <row r="231" spans="8:8">
+      <c r="H231" s="36"/>
+    </row>
+    <row r="232" spans="8:8">
+      <c r="H232" s="36"/>
+    </row>
+    <row r="233" spans="8:8">
+      <c r="H233" s="36"/>
+    </row>
+    <row r="234" spans="8:8">
+      <c r="H234" s="36"/>
+    </row>
+    <row r="235" spans="8:8">
+      <c r="H235" s="36"/>
+    </row>
+    <row r="236" spans="8:8">
+      <c r="H236" s="36"/>
+    </row>
+    <row r="237" spans="8:8">
+      <c r="H237" s="36"/>
+    </row>
+    <row r="238" spans="8:8">
+      <c r="H238" s="36"/>
+    </row>
+    <row r="239" spans="8:8">
+      <c r="H239" s="36"/>
+    </row>
+    <row r="240" spans="8:8">
+      <c r="H240" s="36"/>
+    </row>
+    <row r="241" spans="8:8">
+      <c r="H241" s="36"/>
+    </row>
+    <row r="242" spans="8:8">
+      <c r="H242" s="36"/>
+    </row>
+    <row r="243" spans="8:8">
+      <c r="H243" s="36"/>
+    </row>
+    <row r="244" spans="8:8">
+      <c r="H244" s="36"/>
+    </row>
+    <row r="245" spans="8:8">
+      <c r="H245" s="36"/>
+    </row>
+    <row r="246" spans="8:8">
+      <c r="H246" s="36"/>
+    </row>
+    <row r="247" spans="8:8">
+      <c r="H247" s="36"/>
+    </row>
+    <row r="248" spans="8:8">
+      <c r="H248" s="36"/>
+    </row>
+    <row r="249" spans="8:8">
+      <c r="H249" s="36"/>
+    </row>
+    <row r="250" spans="8:8">
+      <c r="H250" s="36"/>
+    </row>
+    <row r="251" spans="8:8">
+      <c r="H251" s="36"/>
+    </row>
+    <row r="252" spans="8:8">
+      <c r="H252" s="36"/>
+    </row>
+    <row r="253" spans="8:8">
+      <c r="H253" s="36"/>
+    </row>
+    <row r="254" spans="8:8">
+      <c r="H254" s="36"/>
+    </row>
+    <row r="255" spans="8:8">
+      <c r="H255" s="36"/>
+    </row>
+    <row r="256" spans="8:8">
+      <c r="H256" s="36"/>
+    </row>
+    <row r="257" spans="8:8">
+      <c r="H257" s="36"/>
+    </row>
+    <row r="258" spans="8:8">
+      <c r="H258" s="36"/>
+    </row>
+    <row r="259" spans="8:8">
+      <c r="H259" s="36"/>
+    </row>
+    <row r="260" spans="8:8">
+      <c r="H260" s="36"/>
+    </row>
+    <row r="261" spans="8:8">
+      <c r="H261" s="36"/>
+    </row>
+    <row r="262" spans="8:8">
+      <c r="H262" s="36"/>
+    </row>
+    <row r="263" spans="8:8">
+      <c r="H263" s="36"/>
+    </row>
+    <row r="264" spans="8:8">
+      <c r="H264" s="36"/>
+    </row>
+    <row r="265" spans="8:8">
+      <c r="H265" s="36"/>
+    </row>
+    <row r="266" spans="8:8">
+      <c r="H266" s="36"/>
+    </row>
+    <row r="267" spans="8:8">
+      <c r="H267" s="36"/>
+    </row>
+    <row r="268" spans="8:8">
+      <c r="H268" s="36"/>
+    </row>
+    <row r="269" spans="8:8">
+      <c r="H269" s="36"/>
+    </row>
+    <row r="270" spans="8:8">
+      <c r="H270" s="36"/>
+    </row>
+    <row r="271" spans="8:8">
+      <c r="H271" s="36"/>
+    </row>
+    <row r="272" spans="8:8">
+      <c r="H272" s="36"/>
+    </row>
+    <row r="273" spans="8:8">
+      <c r="H273" s="36"/>
+    </row>
+    <row r="274" spans="8:8">
+      <c r="H274" s="36"/>
+    </row>
+    <row r="275" spans="8:8">
+      <c r="H275" s="36"/>
+    </row>
+    <row r="276" spans="8:8">
+      <c r="H276" s="36"/>
+    </row>
+    <row r="277" spans="8:8">
+      <c r="H277" s="36"/>
+    </row>
+    <row r="278" spans="8:8">
+      <c r="H278" s="36"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="A85:O85"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/sample-data-fx.xlsx
+++ b/sample-data-fx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Excel\Excel-function-and-formulas-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B75531-E3BE-4F31-936B-CDBBBB1C5C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33B053-B4B7-470C-98F0-42B3941F36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26D4546B-D2A1-4444-8EAF-A6228F96F0C1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$17:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$17:$N$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="817">
   <si>
     <t>Emp ID</t>
   </si>
@@ -2579,6 +2579,220 @@
   <si>
     <t>No employes so blank</t>
   </si>
+  <si>
+    <t>Complex formula: Highest salary person: (XLOOKUP + MAX)</t>
+  </si>
+  <si>
+    <t>One person</t>
+  </si>
+  <si>
+    <t>All person</t>
+  </si>
+  <si>
+    <t>XLOOKUP(MAX(staff[Salary]),staff[Salary],staff[First Name]&amp;" "&amp;staff[Last Name])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staff[Salary]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>to print more values id there is same max values for more than 1 employee</t>
+  </si>
+  <si>
+    <t>to print value the , in straight</t>
+  </si>
+  <si>
+    <t>Complex formula: All employees joined in March: (FILTER + MONTH)</t>
+  </si>
+  <si>
+    <t>Emp id</t>
+  </si>
+  <si>
+    <t>Equation for the question:-</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER(staff[[Emp ID]:[Last Name]],MONTH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>staff[Start Date]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emp with starting name "H"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Female emp with Monday start</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equation for the question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILTER(staff[[Emp ID]:[Start Date]],(staff[Gender]="Female")*(WEEKDAY(staff[Start Date],2)=1))</t>
+    </r>
+  </si>
+  <si>
+    <t>All departments</t>
+  </si>
+  <si>
+    <t>Headcounts</t>
+  </si>
+  <si>
+    <t>Avg salary</t>
+  </si>
+  <si>
+    <t>%diff from overall avg</t>
+  </si>
+  <si>
+    <t>highest salary</t>
+  </si>
+  <si>
+    <t>salary median</t>
+  </si>
+  <si>
+    <t>total males</t>
+  </si>
+  <si>
+    <t>total females</t>
+  </si>
+  <si>
+    <t>Femal ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -2589,7 +2803,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2665,14 +2879,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2717,8 +2923,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2767,8 +2993,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2849,12 +3099,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="3" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2925,28 +3330,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2961,12 +3345,92 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="12" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3168,6 +3632,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71B18D4F-F180-46A4-9272-AD02F8205A18}" name="staff" displayName="staff" ref="C7:O267" totalsRowShown="0">
+  <autoFilter ref="C7:O267" xr:uid="{71B18D4F-F180-46A4-9272-AD02F8205A18}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Need to check"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:O267">
     <sortCondition ref="C7:C267"/>
   </sortState>
@@ -3489,8 +3960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627306E8-967B-437C-B97A-A3AA7E6942D3}">
   <dimension ref="A1:N265"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4962,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE182796-6443-4558-9B87-909B73329DFC}">
   <dimension ref="A1:O267"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F276" sqref="F276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5031,7 +5502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1">
       <c r="C8" t="s">
         <v>627</v>
       </c>
@@ -5072,7 +5543,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="C9" t="s">
         <v>309</v>
       </c>
@@ -5113,7 +5584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1">
       <c r="C10" t="s">
         <v>608</v>
       </c>
@@ -5154,7 +5625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1">
       <c r="C11" t="s">
         <v>608</v>
       </c>
@@ -5195,7 +5666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -5236,7 +5707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="C13" t="s">
         <v>645</v>
       </c>
@@ -5277,7 +5748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -5318,7 +5789,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1">
       <c r="C15" t="s">
         <v>225</v>
       </c>
@@ -5359,7 +5830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="C16" t="s">
         <v>504</v>
       </c>
@@ -5400,7 +5871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" hidden="1">
       <c r="C17" t="s">
         <v>596</v>
       </c>
@@ -5441,7 +5912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" hidden="1">
       <c r="C18" t="s">
         <v>98</v>
       </c>
@@ -5482,7 +5953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" hidden="1">
       <c r="C19" t="s">
         <v>94</v>
       </c>
@@ -5523,7 +5994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" hidden="1">
       <c r="C20" t="s">
         <v>291</v>
       </c>
@@ -5564,7 +6035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" hidden="1">
       <c r="C21" t="s">
         <v>590</v>
       </c>
@@ -5605,7 +6076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" hidden="1">
       <c r="C22" t="s">
         <v>276</v>
       </c>
@@ -5646,7 +6117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" hidden="1">
       <c r="C23" t="s">
         <v>294</v>
       </c>
@@ -5687,7 +6158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" hidden="1">
       <c r="C24" t="s">
         <v>548</v>
       </c>
@@ -5728,7 +6199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" hidden="1">
       <c r="C25" t="s">
         <v>698</v>
       </c>
@@ -5769,7 +6240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" hidden="1">
       <c r="C26" t="s">
         <v>246</v>
       </c>
@@ -5810,7 +6281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" hidden="1">
       <c r="C27" t="s">
         <v>609</v>
       </c>
@@ -5851,7 +6322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" hidden="1">
       <c r="C28" t="s">
         <v>666</v>
       </c>
@@ -5892,7 +6363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" hidden="1">
       <c r="C29" t="s">
         <v>141</v>
       </c>
@@ -5933,7 +6404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" hidden="1">
       <c r="C30" t="s">
         <v>672</v>
       </c>
@@ -5974,7 +6445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" hidden="1">
       <c r="C31" t="s">
         <v>389</v>
       </c>
@@ -6015,7 +6486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" hidden="1">
       <c r="C32" t="s">
         <v>389</v>
       </c>
@@ -6056,7 +6527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" hidden="1">
       <c r="C33" t="s">
         <v>336</v>
       </c>
@@ -6097,7 +6568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" hidden="1">
       <c r="C34" t="s">
         <v>533</v>
       </c>
@@ -6138,7 +6609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" hidden="1">
       <c r="C35" t="s">
         <v>342</v>
       </c>
@@ -6179,7 +6650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" hidden="1">
       <c r="C36" t="s">
         <v>392</v>
       </c>
@@ -6220,7 +6691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" hidden="1">
       <c r="C37" t="s">
         <v>189</v>
       </c>
@@ -6261,7 +6732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" hidden="1">
       <c r="C38" t="s">
         <v>575</v>
       </c>
@@ -6302,7 +6773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" hidden="1">
       <c r="C39" t="s">
         <v>121</v>
       </c>
@@ -6343,7 +6814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:15">
+    <row r="40" spans="3:15" hidden="1">
       <c r="C40" t="s">
         <v>445</v>
       </c>
@@ -6384,7 +6855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" hidden="1">
       <c r="C41" t="s">
         <v>707</v>
       </c>
@@ -6425,7 +6896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="3:15">
+    <row r="42" spans="3:15" hidden="1">
       <c r="C42" t="s">
         <v>115</v>
       </c>
@@ -6466,7 +6937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" hidden="1">
       <c r="C43" t="s">
         <v>216</v>
       </c>
@@ -6507,7 +6978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:15">
+    <row r="44" spans="3:15" hidden="1">
       <c r="C44" t="s">
         <v>560</v>
       </c>
@@ -6548,7 +7019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:15">
+    <row r="45" spans="3:15" hidden="1">
       <c r="C45" t="s">
         <v>273</v>
       </c>
@@ -6589,7 +7060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
+    <row r="46" spans="3:15" hidden="1">
       <c r="C46" t="s">
         <v>642</v>
       </c>
@@ -6630,7 +7101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="3:15">
+    <row r="47" spans="3:15" hidden="1">
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -6671,7 +7142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="3:15">
+    <row r="48" spans="3:15" hidden="1">
       <c r="C48" t="s">
         <v>469</v>
       </c>
@@ -6712,7 +7183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="3:15">
+    <row r="49" spans="3:15" hidden="1">
       <c r="C49" t="s">
         <v>102</v>
       </c>
@@ -6753,7 +7224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="3:15">
+    <row r="50" spans="3:15" hidden="1">
       <c r="C50" t="s">
         <v>721</v>
       </c>
@@ -6794,7 +7265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="3:15">
+    <row r="51" spans="3:15" hidden="1">
       <c r="C51" t="s">
         <v>321</v>
       </c>
@@ -6835,7 +7306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="3:15">
+    <row r="52" spans="3:15" hidden="1">
       <c r="C52" t="s">
         <v>321</v>
       </c>
@@ -6876,7 +7347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="3:15">
+    <row r="53" spans="3:15" hidden="1">
       <c r="C53" t="s">
         <v>198</v>
       </c>
@@ -6917,7 +7388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" hidden="1">
       <c r="C54" t="s">
         <v>501</v>
       </c>
@@ -6958,7 +7429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="3:15">
+    <row r="55" spans="3:15" hidden="1">
       <c r="C55" t="s">
         <v>258</v>
       </c>
@@ -6999,7 +7470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:15">
+    <row r="56" spans="3:15" hidden="1">
       <c r="C56" t="s">
         <v>728</v>
       </c>
@@ -7040,7 +7511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="3:15">
+    <row r="57" spans="3:15" hidden="1">
       <c r="C57" t="s">
         <v>282</v>
       </c>
@@ -7081,7 +7552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:15" hidden="1">
       <c r="C58" t="s">
         <v>413</v>
       </c>
@@ -7122,7 +7593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="3:15">
+    <row r="59" spans="3:15" hidden="1">
       <c r="C59" t="s">
         <v>69</v>
       </c>
@@ -7204,7 +7675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="3:15">
+    <row r="61" spans="3:15" hidden="1">
       <c r="C61" t="s">
         <v>21</v>
       </c>
@@ -7245,7 +7716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="3:15">
+    <row r="62" spans="3:15" hidden="1">
       <c r="C62" t="s">
         <v>624</v>
       </c>
@@ -7286,7 +7757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="3:15">
+    <row r="63" spans="3:15" hidden="1">
       <c r="C63" t="s">
         <v>434</v>
       </c>
@@ -7327,7 +7798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="3:15">
+    <row r="64" spans="3:15" hidden="1">
       <c r="C64" t="s">
         <v>578</v>
       </c>
@@ -7368,7 +7839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="3:15">
+    <row r="65" spans="3:15" hidden="1">
       <c r="C65" t="s">
         <v>510</v>
       </c>
@@ -7409,7 +7880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="3:15">
+    <row r="66" spans="3:15" hidden="1">
       <c r="C66" t="s">
         <v>42</v>
       </c>
@@ -7450,7 +7921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="3:15">
+    <row r="67" spans="3:15" hidden="1">
       <c r="C67" t="s">
         <v>605</v>
       </c>
@@ -7491,7 +7962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="3:15">
+    <row r="68" spans="3:15" hidden="1">
       <c r="C68" t="s">
         <v>657</v>
       </c>
@@ -7532,7 +8003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="3:15">
+    <row r="69" spans="3:15" hidden="1">
       <c r="C69" t="s">
         <v>186</v>
       </c>
@@ -7573,7 +8044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="3:15">
+    <row r="70" spans="3:15" hidden="1">
       <c r="C70" t="s">
         <v>318</v>
       </c>
@@ -7614,7 +8085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="3:15">
+    <row r="71" spans="3:15" hidden="1">
       <c r="C71" t="s">
         <v>339</v>
       </c>
@@ -7655,7 +8126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="3:15">
+    <row r="72" spans="3:15" hidden="1">
       <c r="C72" t="s">
         <v>55</v>
       </c>
@@ -7696,7 +8167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="3:15">
+    <row r="73" spans="3:15" hidden="1">
       <c r="C73" t="s">
         <v>78</v>
       </c>
@@ -7737,7 +8208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="3:15">
+    <row r="74" spans="3:15" hidden="1">
       <c r="C74" t="s">
         <v>365</v>
       </c>
@@ -7778,7 +8249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" hidden="1">
       <c r="C75" t="s">
         <v>210</v>
       </c>
@@ -7819,7 +8290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="3:15">
+    <row r="76" spans="3:15" hidden="1">
       <c r="C76" t="s">
         <v>210</v>
       </c>
@@ -7860,7 +8331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="3:15">
+    <row r="77" spans="3:15" hidden="1">
       <c r="C77" t="s">
         <v>407</v>
       </c>
@@ -7901,7 +8372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="3:15">
+    <row r="78" spans="3:15" hidden="1">
       <c r="C78" t="s">
         <v>419</v>
       </c>
@@ -7942,7 +8413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="3:15">
+    <row r="79" spans="3:15" hidden="1">
       <c r="C79" t="s">
         <v>162</v>
       </c>
@@ -7983,7 +8454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="3:15">
+    <row r="80" spans="3:15" hidden="1">
       <c r="C80" t="s">
         <v>416</v>
       </c>
@@ -8024,7 +8495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="3:15">
+    <row r="81" spans="3:15" hidden="1">
       <c r="C81" t="s">
         <v>128</v>
       </c>
@@ -8065,7 +8536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="3:15">
+    <row r="82" spans="3:15" hidden="1">
       <c r="C82" t="s">
         <v>183</v>
       </c>
@@ -8106,7 +8577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="3:15">
+    <row r="83" spans="3:15" hidden="1">
       <c r="C83" t="s">
         <v>351</v>
       </c>
@@ -8147,7 +8618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="3:15">
+    <row r="84" spans="3:15" hidden="1">
       <c r="C84" t="s">
         <v>147</v>
       </c>
@@ -8188,7 +8659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="3:15">
+    <row r="85" spans="3:15" hidden="1">
       <c r="C85" t="s">
         <v>192</v>
       </c>
@@ -8229,7 +8700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="3:15">
+    <row r="86" spans="3:15" hidden="1">
       <c r="C86" t="s">
         <v>348</v>
       </c>
@@ -8270,7 +8741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="3:15">
+    <row r="87" spans="3:15" hidden="1">
       <c r="C87" t="s">
         <v>566</v>
       </c>
@@ -8311,7 +8782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" hidden="1">
       <c r="C88" t="s">
         <v>431</v>
       </c>
@@ -8352,7 +8823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="3:15">
+    <row r="89" spans="3:15" hidden="1">
       <c r="C89" t="s">
         <v>51</v>
       </c>
@@ -8393,7 +8864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="3:15">
+    <row r="90" spans="3:15" hidden="1">
       <c r="C90" t="s">
         <v>410</v>
       </c>
@@ -8434,7 +8905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="3:15">
+    <row r="91" spans="3:15" hidden="1">
       <c r="C91" t="s">
         <v>410</v>
       </c>
@@ -8475,7 +8946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="3:15">
+    <row r="92" spans="3:15" hidden="1">
       <c r="C92" t="s">
         <v>654</v>
       </c>
@@ -8516,7 +8987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="3:15">
+    <row r="93" spans="3:15" hidden="1">
       <c r="C93" t="s">
         <v>654</v>
       </c>
@@ -8557,7 +9028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="3:15">
+    <row r="94" spans="3:15" hidden="1">
       <c r="C94" t="s">
         <v>557</v>
       </c>
@@ -8598,7 +9069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="3:15">
+    <row r="95" spans="3:15" hidden="1">
       <c r="C95" t="s">
         <v>333</v>
       </c>
@@ -8639,7 +9110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="3:15">
+    <row r="96" spans="3:15" hidden="1">
       <c r="C96" t="s">
         <v>204</v>
       </c>
@@ -8680,7 +9151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="3:15">
+    <row r="97" spans="3:15" hidden="1">
       <c r="C97" t="s">
         <v>648</v>
       </c>
@@ -8721,7 +9192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="3:15">
+    <row r="98" spans="3:15" hidden="1">
       <c r="C98" t="s">
         <v>513</v>
       </c>
@@ -8762,7 +9233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="3:15">
+    <row r="99" spans="3:15" hidden="1">
       <c r="C99" t="s">
         <v>633</v>
       </c>
@@ -8803,7 +9274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="3:15">
+    <row r="100" spans="3:15" hidden="1">
       <c r="C100" t="s">
         <v>213</v>
       </c>
@@ -8844,7 +9315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="3:15">
+    <row r="101" spans="3:15" hidden="1">
       <c r="C101" t="s">
         <v>132</v>
       </c>
@@ -8885,7 +9356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="3:15">
+    <row r="102" spans="3:15" hidden="1">
       <c r="C102" t="s">
         <v>132</v>
       </c>
@@ -8926,7 +9397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="3:15">
+    <row r="103" spans="3:15" hidden="1">
       <c r="C103" t="s">
         <v>685</v>
       </c>
@@ -8967,7 +9438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="3:15">
+    <row r="104" spans="3:15" hidden="1">
       <c r="C104" t="s">
         <v>688</v>
       </c>
@@ -9008,7 +9479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="3:15">
+    <row r="105" spans="3:15" hidden="1">
       <c r="C105" t="s">
         <v>682</v>
       </c>
@@ -9049,7 +9520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="3:15">
+    <row r="106" spans="3:15" hidden="1">
       <c r="C106" t="s">
         <v>451</v>
       </c>
@@ -9090,7 +9561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="3:15">
+    <row r="107" spans="3:15" hidden="1">
       <c r="C107" t="s">
         <v>487</v>
       </c>
@@ -9131,7 +9602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="3:15">
+    <row r="108" spans="3:15" hidden="1">
       <c r="C108" t="s">
         <v>519</v>
       </c>
@@ -9172,7 +9643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="3:15">
+    <row r="109" spans="3:15" hidden="1">
       <c r="C109" t="s">
         <v>234</v>
       </c>
@@ -9213,7 +9684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="3:15">
+    <row r="110" spans="3:15" hidden="1">
       <c r="C110" t="s">
         <v>234</v>
       </c>
@@ -9254,7 +9725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="3:15">
+    <row r="111" spans="3:15" hidden="1">
       <c r="C111" t="s">
         <v>669</v>
       </c>
@@ -9295,7 +9766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="3:15">
+    <row r="112" spans="3:15" hidden="1">
       <c r="C112" t="s">
         <v>448</v>
       </c>
@@ -9336,7 +9807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="3:15">
+    <row r="113" spans="3:15" hidden="1">
       <c r="C113" t="s">
         <v>360</v>
       </c>
@@ -9377,7 +9848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="3:15">
+    <row r="114" spans="3:15" hidden="1">
       <c r="C114" t="s">
         <v>240</v>
       </c>
@@ -9418,7 +9889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="3:15">
+    <row r="115" spans="3:15" hidden="1">
       <c r="C115" t="s">
         <v>240</v>
       </c>
@@ -9459,7 +9930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="3:15">
+    <row r="116" spans="3:15" hidden="1">
       <c r="C116" t="s">
         <v>507</v>
       </c>
@@ -9541,7 +10012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="3:15">
+    <row r="118" spans="3:15" hidden="1">
       <c r="C118" t="s">
         <v>630</v>
       </c>
@@ -9582,7 +10053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="3:15">
+    <row r="119" spans="3:15" hidden="1">
       <c r="C119" t="s">
         <v>312</v>
       </c>
@@ -9623,7 +10094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="3:15">
+    <row r="120" spans="3:15" hidden="1">
       <c r="C120" t="s">
         <v>735</v>
       </c>
@@ -9664,7 +10135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="3:15">
+    <row r="121" spans="3:15" hidden="1">
       <c r="C121" t="s">
         <v>395</v>
       </c>
@@ -9705,7 +10176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="3:15">
+    <row r="122" spans="3:15" hidden="1">
       <c r="C122" t="s">
         <v>525</v>
       </c>
@@ -9746,7 +10217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="3:15">
+    <row r="123" spans="3:15" hidden="1">
       <c r="C123" t="s">
         <v>593</v>
       </c>
@@ -9787,7 +10258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="3:15">
+    <row r="124" spans="3:15" hidden="1">
       <c r="C124" t="s">
         <v>324</v>
       </c>
@@ -9828,7 +10299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="3:15">
+    <row r="125" spans="3:15" hidden="1">
       <c r="C125" t="s">
         <v>88</v>
       </c>
@@ -9869,7 +10340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="3:15">
+    <row r="126" spans="3:15" hidden="1">
       <c r="C126" t="s">
         <v>368</v>
       </c>
@@ -9910,7 +10381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="3:15">
+    <row r="127" spans="3:15" hidden="1">
       <c r="C127" t="s">
         <v>29</v>
       </c>
@@ -9951,7 +10422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="3:15">
+    <row r="128" spans="3:15" hidden="1">
       <c r="C128" t="s">
         <v>704</v>
       </c>
@@ -9992,7 +10463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="3:15">
+    <row r="129" spans="3:15" hidden="1">
       <c r="C129" t="s">
         <v>460</v>
       </c>
@@ -10033,7 +10504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="3:15">
+    <row r="130" spans="3:15" hidden="1">
       <c r="C130" t="s">
         <v>428</v>
       </c>
@@ -10074,7 +10545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="3:15">
+    <row r="131" spans="3:15" hidden="1">
       <c r="C131" t="s">
         <v>484</v>
       </c>
@@ -10115,7 +10586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="3:15">
+    <row r="132" spans="3:15" hidden="1">
       <c r="C132" t="s">
         <v>285</v>
       </c>
@@ -10156,7 +10627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="3:15">
+    <row r="133" spans="3:15" hidden="1">
       <c r="C133" t="s">
         <v>81</v>
       </c>
@@ -10197,7 +10668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="3:15">
+    <row r="134" spans="3:15" hidden="1">
       <c r="C134" t="s">
         <v>81</v>
       </c>
@@ -10238,7 +10709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="3:15">
+    <row r="135" spans="3:15" hidden="1">
       <c r="C135" t="s">
         <v>174</v>
       </c>
@@ -10279,7 +10750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="3:15">
+    <row r="136" spans="3:15" hidden="1">
       <c r="C136" t="s">
         <v>612</v>
       </c>
@@ -10320,7 +10791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="3:15">
+    <row r="137" spans="3:15" hidden="1">
       <c r="C137" t="s">
         <v>639</v>
       </c>
@@ -10361,7 +10832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="3:15">
+    <row r="138" spans="3:15" hidden="1">
       <c r="C138" t="s">
         <v>91</v>
       </c>
@@ -10402,7 +10873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="3:15">
+    <row r="139" spans="3:15" hidden="1">
       <c r="C139" t="s">
         <v>551</v>
       </c>
@@ -10443,7 +10914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="3:15">
+    <row r="140" spans="3:15" hidden="1">
       <c r="C140" t="s">
         <v>404</v>
       </c>
@@ -10484,7 +10955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="3:15">
+    <row r="141" spans="3:15" hidden="1">
       <c r="C141" t="s">
         <v>345</v>
       </c>
@@ -10525,7 +10996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="3:15">
+    <row r="142" spans="3:15" hidden="1">
       <c r="C142" t="s">
         <v>327</v>
       </c>
@@ -10566,7 +11037,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="3:15">
+    <row r="143" spans="3:15" hidden="1">
       <c r="C143" t="s">
         <v>327</v>
       </c>
@@ -10607,7 +11078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="3:15">
+    <row r="144" spans="3:15" hidden="1">
       <c r="C144" t="s">
         <v>109</v>
       </c>
@@ -10648,7 +11119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="3:15">
+    <row r="145" spans="3:15" hidden="1">
       <c r="C145" t="s">
         <v>371</v>
       </c>
@@ -10689,7 +11160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="3:15">
+    <row r="146" spans="3:15" hidden="1">
       <c r="C146" t="s">
         <v>357</v>
       </c>
@@ -10730,7 +11201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="3:15">
+    <row r="147" spans="3:15" hidden="1">
       <c r="C147" t="s">
         <v>466</v>
       </c>
@@ -10771,7 +11242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="3:15">
+    <row r="148" spans="3:15" hidden="1">
       <c r="C148" t="s">
         <v>466</v>
       </c>
@@ -10812,7 +11283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="3:15">
+    <row r="149" spans="3:15" hidden="1">
       <c r="C149" t="s">
         <v>66</v>
       </c>
@@ -10853,7 +11324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="3:15">
+    <row r="150" spans="3:15" hidden="1">
       <c r="C150" t="s">
         <v>401</v>
       </c>
@@ -10894,7 +11365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="3:15">
+    <row r="151" spans="3:15" hidden="1">
       <c r="C151" t="s">
         <v>715</v>
       </c>
@@ -10935,7 +11406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="3:15">
+    <row r="152" spans="3:15" hidden="1">
       <c r="C152" t="s">
         <v>621</v>
       </c>
@@ -10976,7 +11447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="3:15">
+    <row r="153" spans="3:15" hidden="1">
       <c r="C153" t="s">
         <v>563</v>
       </c>
@@ -11017,7 +11488,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="3:15">
+    <row r="154" spans="3:15" hidden="1">
       <c r="C154" t="s">
         <v>563</v>
       </c>
@@ -11058,7 +11529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="3:15">
+    <row r="155" spans="3:15" hidden="1">
       <c r="C155" t="s">
         <v>386</v>
       </c>
@@ -11099,7 +11570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="3:15">
+    <row r="156" spans="3:15" hidden="1">
       <c r="C156" t="s">
         <v>581</v>
       </c>
@@ -11140,7 +11611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="3:15">
+    <row r="157" spans="3:15" hidden="1">
       <c r="C157" t="s">
         <v>168</v>
       </c>
@@ -11181,7 +11652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="3:15">
+    <row r="158" spans="3:15" hidden="1">
       <c r="C158" t="s">
         <v>168</v>
       </c>
@@ -11222,7 +11693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="3:15">
+    <row r="159" spans="3:15" hidden="1">
       <c r="C159" t="s">
         <v>422</v>
       </c>
@@ -11263,7 +11734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="3:15">
+    <row r="160" spans="3:15" hidden="1">
       <c r="C160" t="s">
         <v>697</v>
       </c>
@@ -11304,7 +11775,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="3:15">
+    <row r="161" spans="3:15" hidden="1">
       <c r="C161" t="s">
         <v>660</v>
       </c>
@@ -11386,7 +11857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="3:15">
+    <row r="163" spans="3:15" hidden="1">
       <c r="C163" t="s">
         <v>691</v>
       </c>
@@ -11468,7 +11939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="3:15">
+    <row r="165" spans="3:15" hidden="1">
       <c r="C165" t="s">
         <v>156</v>
       </c>
@@ -11509,7 +11980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="3:15">
+    <row r="166" spans="3:15" hidden="1">
       <c r="C166" t="s">
         <v>156</v>
       </c>
@@ -11550,7 +12021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="3:15">
+    <row r="167" spans="3:15" hidden="1">
       <c r="C167" t="s">
         <v>492</v>
       </c>
@@ -11591,7 +12062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="3:15">
+    <row r="168" spans="3:15" hidden="1">
       <c r="C168" t="s">
         <v>492</v>
       </c>
@@ -11632,7 +12103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="3:15">
+    <row r="169" spans="3:15" hidden="1">
       <c r="C169" t="s">
         <v>495</v>
       </c>
@@ -11673,7 +12144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="3:15">
+    <row r="170" spans="3:15" hidden="1">
       <c r="C170" t="s">
         <v>38</v>
       </c>
@@ -11714,7 +12185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="3:15">
+    <row r="171" spans="3:15" hidden="1">
       <c r="C171" t="s">
         <v>439</v>
       </c>
@@ -11755,7 +12226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="3:15">
+    <row r="172" spans="3:15" hidden="1">
       <c r="C172" t="s">
         <v>231</v>
       </c>
@@ -11796,7 +12267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="3:15">
+    <row r="173" spans="3:15" hidden="1">
       <c r="C173" t="s">
         <v>722</v>
       </c>
@@ -11837,7 +12308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="3:15">
+    <row r="174" spans="3:15" hidden="1">
       <c r="C174" t="s">
         <v>207</v>
       </c>
@@ -11878,7 +12349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="175" spans="3:15">
+    <row r="175" spans="3:15" hidden="1">
       <c r="C175" t="s">
         <v>207</v>
       </c>
@@ -11919,7 +12390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="3:15">
+    <row r="176" spans="3:15" hidden="1">
       <c r="C176" t="s">
         <v>377</v>
       </c>
@@ -11960,7 +12431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="3:15">
+    <row r="177" spans="3:15" hidden="1">
       <c r="C177" t="s">
         <v>554</v>
       </c>
@@ -12001,7 +12472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="3:15">
+    <row r="178" spans="3:15" hidden="1">
       <c r="C178" t="s">
         <v>180</v>
       </c>
@@ -12042,7 +12513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="3:15">
+    <row r="179" spans="3:15" hidden="1">
       <c r="C179" t="s">
         <v>180</v>
       </c>
@@ -12083,7 +12554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="3:15">
+    <row r="180" spans="3:15" hidden="1">
       <c r="C180" t="s">
         <v>195</v>
       </c>
@@ -12124,7 +12595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="3:15">
+    <row r="181" spans="3:15" hidden="1">
       <c r="C181" t="s">
         <v>219</v>
       </c>
@@ -12165,7 +12636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="3:15">
+    <row r="182" spans="3:15" hidden="1">
       <c r="C182" t="s">
         <v>569</v>
       </c>
@@ -12206,7 +12677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="3:15">
+    <row r="183" spans="3:15" hidden="1">
       <c r="C183" t="s">
         <v>106</v>
       </c>
@@ -12247,7 +12718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="3:15">
+    <row r="184" spans="3:15" hidden="1">
       <c r="C184" t="s">
         <v>303</v>
       </c>
@@ -12288,7 +12759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="3:15">
+    <row r="185" spans="3:15" hidden="1">
       <c r="C185" t="s">
         <v>303</v>
       </c>
@@ -12329,7 +12800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="3:15">
+    <row r="186" spans="3:15" hidden="1">
       <c r="C186" t="s">
         <v>264</v>
       </c>
@@ -12370,7 +12841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="3:15">
+    <row r="187" spans="3:15" hidden="1">
       <c r="C187" t="s">
         <v>264</v>
       </c>
@@ -12411,7 +12882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="3:15">
+    <row r="188" spans="3:15" hidden="1">
       <c r="C188" t="s">
         <v>539</v>
       </c>
@@ -12452,7 +12923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="3:15">
+    <row r="189" spans="3:15" hidden="1">
       <c r="C189" t="s">
         <v>383</v>
       </c>
@@ -12493,7 +12964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="3:15">
+    <row r="190" spans="3:15" hidden="1">
       <c r="C190" t="s">
         <v>576</v>
       </c>
@@ -12534,7 +13005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="3:15">
+    <row r="191" spans="3:15" hidden="1">
       <c r="C191" t="s">
         <v>542</v>
       </c>
@@ -12575,7 +13046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="3:15">
+    <row r="192" spans="3:15" hidden="1">
       <c r="C192" t="s">
         <v>153</v>
       </c>
@@ -12616,7 +13087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="3:15">
+    <row r="193" spans="3:15" hidden="1">
       <c r="C193" t="s">
         <v>694</v>
       </c>
@@ -12739,7 +13210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="3:15">
+    <row r="196" spans="3:15" hidden="1">
       <c r="C196" t="s">
         <v>475</v>
       </c>
@@ -12780,7 +13251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="3:15">
+    <row r="197" spans="3:15" hidden="1">
       <c r="C197" t="s">
         <v>300</v>
       </c>
@@ -12821,7 +13292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="3:15">
+    <row r="198" spans="3:15" hidden="1">
       <c r="C198" t="s">
         <v>732</v>
       </c>
@@ -12862,7 +13333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="3:15">
+    <row r="199" spans="3:15" hidden="1">
       <c r="C199" t="s">
         <v>587</v>
       </c>
@@ -12903,7 +13374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="3:15">
+    <row r="200" spans="3:15" hidden="1">
       <c r="C200" t="s">
         <v>636</v>
       </c>
@@ -12944,7 +13415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="3:15">
+    <row r="201" spans="3:15" hidden="1">
       <c r="C201" t="s">
         <v>463</v>
       </c>
@@ -12985,7 +13456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="3:15">
+    <row r="202" spans="3:15" hidden="1">
       <c r="C202" t="s">
         <v>615</v>
       </c>
@@ -13026,7 +13497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="3:15">
+    <row r="203" spans="3:15" hidden="1">
       <c r="C203" t="s">
         <v>710</v>
       </c>
@@ -13067,7 +13538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="3:15">
+    <row r="204" spans="3:15" hidden="1">
       <c r="C204" t="s">
         <v>62</v>
       </c>
@@ -13108,7 +13579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="3:15">
+    <row r="205" spans="3:15" hidden="1">
       <c r="C205" t="s">
         <v>478</v>
       </c>
@@ -13149,7 +13620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="3:15">
+    <row r="206" spans="3:15" hidden="1">
       <c r="C206" t="s">
         <v>478</v>
       </c>
@@ -13190,7 +13661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="3:15">
+    <row r="207" spans="3:15" hidden="1">
       <c r="C207" t="s">
         <v>545</v>
       </c>
@@ -13231,7 +13702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="3:15">
+    <row r="208" spans="3:15" hidden="1">
       <c r="C208" t="s">
         <v>663</v>
       </c>
@@ -13272,7 +13743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="3:15">
+    <row r="209" spans="3:15" hidden="1">
       <c r="C209" t="s">
         <v>177</v>
       </c>
@@ -13313,7 +13784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="3:15">
+    <row r="210" spans="3:15" hidden="1">
       <c r="C210" t="s">
         <v>472</v>
       </c>
@@ -13354,7 +13825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="3:15">
+    <row r="211" spans="3:15" hidden="1">
       <c r="C211" t="s">
         <v>572</v>
       </c>
@@ -13395,7 +13866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="3:15">
+    <row r="212" spans="3:15" hidden="1">
       <c r="C212" t="s">
         <v>222</v>
       </c>
@@ -13436,7 +13907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="3:15">
+    <row r="213" spans="3:15" hidden="1">
       <c r="C213" t="s">
         <v>498</v>
       </c>
@@ -13477,7 +13948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="3:15">
+    <row r="214" spans="3:15" hidden="1">
       <c r="C214" t="s">
         <v>288</v>
       </c>
@@ -13518,7 +13989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="3:15">
+    <row r="215" spans="3:15" hidden="1">
       <c r="C215" t="s">
         <v>398</v>
       </c>
@@ -13559,7 +14030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="3:15">
+    <row r="216" spans="3:15" hidden="1">
       <c r="C216" t="s">
         <v>398</v>
       </c>
@@ -13600,7 +14071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="3:15">
+    <row r="217" spans="3:15" hidden="1">
       <c r="C217" t="s">
         <v>297</v>
       </c>
@@ -13641,7 +14112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="3:15">
+    <row r="218" spans="3:15" hidden="1">
       <c r="C218" t="s">
         <v>516</v>
       </c>
@@ -13682,7 +14153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="3:15">
+    <row r="219" spans="3:15" hidden="1">
       <c r="C219" t="s">
         <v>165</v>
       </c>
@@ -13723,7 +14194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="3:15">
+    <row r="220" spans="3:15" hidden="1">
       <c r="C220" t="s">
         <v>599</v>
       </c>
@@ -13764,7 +14235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="3:15">
+    <row r="221" spans="3:15" hidden="1">
       <c r="C221" t="s">
         <v>33</v>
       </c>
@@ -13805,7 +14276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="3:15">
+    <row r="222" spans="3:15" hidden="1">
       <c r="C222" t="s">
         <v>330</v>
       </c>
@@ -13846,7 +14317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="3:15">
+    <row r="223" spans="3:15" hidden="1">
       <c r="C223" t="s">
         <v>330</v>
       </c>
@@ -13887,7 +14358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="3:15">
+    <row r="224" spans="3:15" hidden="1">
       <c r="C224" t="s">
         <v>677</v>
       </c>
@@ -13928,7 +14399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="3:15">
+    <row r="225" spans="3:15" hidden="1">
       <c r="C225" t="s">
         <v>249</v>
       </c>
@@ -13969,7 +14440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="3:15">
+    <row r="226" spans="3:15" hidden="1">
       <c r="C226" t="s">
         <v>228</v>
       </c>
@@ -14010,7 +14481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="3:15">
+    <row r="227" spans="3:15" hidden="1">
       <c r="C227" t="s">
         <v>144</v>
       </c>
@@ -14051,7 +14522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="3:15">
+    <row r="228" spans="3:15" hidden="1">
       <c r="C228" t="s">
         <v>144</v>
       </c>
@@ -14092,7 +14563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="3:15">
+    <row r="229" spans="3:15" hidden="1">
       <c r="C229" t="s">
         <v>425</v>
       </c>
@@ -14133,7 +14604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="3:15">
+    <row r="230" spans="3:15" hidden="1">
       <c r="C230" t="s">
         <v>315</v>
       </c>
@@ -14174,7 +14645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="3:15">
+    <row r="231" spans="3:15" hidden="1">
       <c r="C231" t="s">
         <v>315</v>
       </c>
@@ -14215,7 +14686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="3:15">
+    <row r="232" spans="3:15" hidden="1">
       <c r="C232" t="s">
         <v>73</v>
       </c>
@@ -14256,7 +14727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="3:15">
+    <row r="233" spans="3:15" hidden="1">
       <c r="C233" t="s">
         <v>255</v>
       </c>
@@ -14297,7 +14768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="3:15">
+    <row r="234" spans="3:15" hidden="1">
       <c r="C234" t="s">
         <v>442</v>
       </c>
@@ -14338,7 +14809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="3:15">
+    <row r="235" spans="3:15" hidden="1">
       <c r="C235" t="s">
         <v>85</v>
       </c>
@@ -14379,7 +14850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="3:15">
+    <row r="236" spans="3:15" hidden="1">
       <c r="C236" t="s">
         <v>270</v>
       </c>
@@ -14420,7 +14891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="3:15">
+    <row r="237" spans="3:15" hidden="1">
       <c r="C237" t="s">
         <v>159</v>
       </c>
@@ -14461,7 +14932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="3:15">
+    <row r="238" spans="3:15" hidden="1">
       <c r="C238" t="s">
         <v>584</v>
       </c>
@@ -14502,7 +14973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="3:15">
+    <row r="239" spans="3:15" hidden="1">
       <c r="C239" t="s">
         <v>261</v>
       </c>
@@ -14543,7 +15014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="3:15">
+    <row r="240" spans="3:15" hidden="1">
       <c r="C240" t="s">
         <v>243</v>
       </c>
@@ -14584,7 +15055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="3:15">
+    <row r="241" spans="3:15" hidden="1">
       <c r="C241" t="s">
         <v>243</v>
       </c>
@@ -14625,7 +15096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="3:15">
+    <row r="242" spans="3:15" hidden="1">
       <c r="C242" t="s">
         <v>354</v>
       </c>
@@ -14666,7 +15137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="3:15">
+    <row r="243" spans="3:15" hidden="1">
       <c r="C243" t="s">
         <v>138</v>
       </c>
@@ -14707,7 +15178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="3:15">
+    <row r="244" spans="3:15" hidden="1">
       <c r="C244" t="s">
         <v>138</v>
       </c>
@@ -14748,7 +15219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="3:15">
+    <row r="245" spans="3:15" hidden="1">
       <c r="C245" t="s">
         <v>481</v>
       </c>
@@ -14789,7 +15260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="3:15">
+    <row r="246" spans="3:15" hidden="1">
       <c r="C246" t="s">
         <v>380</v>
       </c>
@@ -14871,7 +15342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="3:15">
+    <row r="248" spans="3:15" hidden="1">
       <c r="C248" t="s">
         <v>701</v>
       </c>
@@ -14912,7 +15383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="3:15">
+    <row r="249" spans="3:15" hidden="1">
       <c r="C249" t="s">
         <v>125</v>
       </c>
@@ -14953,7 +15424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="3:15">
+    <row r="250" spans="3:15" hidden="1">
       <c r="C250" t="s">
         <v>171</v>
       </c>
@@ -14994,7 +15465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="3:15">
+    <row r="251" spans="3:15" hidden="1">
       <c r="C251" t="s">
         <v>267</v>
       </c>
@@ -15035,7 +15506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="3:15">
+    <row r="252" spans="3:15" hidden="1">
       <c r="C252" t="s">
         <v>374</v>
       </c>
@@ -15076,7 +15547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="3:15">
+    <row r="253" spans="3:15" hidden="1">
       <c r="C253" t="s">
         <v>374</v>
       </c>
@@ -15117,7 +15588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="3:15">
+    <row r="254" spans="3:15" hidden="1">
       <c r="C254" t="s">
         <v>201</v>
       </c>
@@ -15158,7 +15629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="3:15">
+    <row r="255" spans="3:15" hidden="1">
       <c r="C255" t="s">
         <v>201</v>
       </c>
@@ -15240,7 +15711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="3:15">
+    <row r="257" spans="3:15" hidden="1">
       <c r="C257" t="s">
         <v>602</v>
       </c>
@@ -15281,7 +15752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="3:15">
+    <row r="258" spans="3:15" hidden="1">
       <c r="C258" t="s">
         <v>651</v>
       </c>
@@ -15322,7 +15793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="3:15">
+    <row r="259" spans="3:15" hidden="1">
       <c r="C259" t="s">
         <v>651</v>
       </c>
@@ -15363,7 +15834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="3:15">
+    <row r="260" spans="3:15" hidden="1">
       <c r="C260" t="s">
         <v>522</v>
       </c>
@@ -15404,7 +15875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="3:15">
+    <row r="261" spans="3:15" hidden="1">
       <c r="C261" t="s">
         <v>536</v>
       </c>
@@ -15445,7 +15916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="3:15">
+    <row r="262" spans="3:15" hidden="1">
       <c r="C262" t="s">
         <v>528</v>
       </c>
@@ -15486,7 +15957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="3:15">
+    <row r="263" spans="3:15" hidden="1">
       <c r="C263" t="s">
         <v>457</v>
       </c>
@@ -15527,7 +15998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="3:15">
+    <row r="264" spans="3:15" hidden="1">
       <c r="C264" t="s">
         <v>135</v>
       </c>
@@ -15568,7 +16039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="3:15">
+    <row r="265" spans="3:15" hidden="1">
       <c r="C265" t="s">
         <v>150</v>
       </c>
@@ -15609,7 +16080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="3:15">
+    <row r="266" spans="3:15" hidden="1">
       <c r="C266" t="s">
         <v>725</v>
       </c>
@@ -15650,7 +16121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="3:15">
+    <row r="267" spans="3:15" hidden="1">
       <c r="C267" t="s">
         <v>306</v>
       </c>
@@ -15702,50 +16173,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D145AB91-9B7A-4E90-B667-24217E8EC446}">
-  <dimension ref="A1:S278"/>
+  <dimension ref="A1:T277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="H254" sqref="H254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:18" ht="28.8">
+      <c r="A1" s="52" t="s">
         <v>773</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="26" t="s">
         <v>4</v>
       </c>
@@ -15758,17 +16232,18 @@
       <c r="D2" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -15784,20 +16259,21 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A3)</f>
         <v>83883.965000000011</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="27"/>
+      <c r="F3">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A3)</f>
         <v>11</v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3:F14">COUNTIFS(staff[Employee type],"Temporary",staff[Department],A3:A14)</f>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3:G14">COUNTIFS(staff[Employee type],"Temporary",staff[Department],A3:A14)</f>
         <v>7</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3:G14">COUNTIFS(staff[Employee type],"Fixed Term",staff[Department],A3:A14)</f>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3:H14">COUNTIFS(staff[Employee type],"Fixed Term",staff[Department],A3:A14)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -15812,18 +16288,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A4)</f>
         <v>79781.805769230778</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="27"/>
+      <c r="F4">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A4)</f>
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
       <c r="G4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -15838,18 +16315,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A5)</f>
         <v>81976.441923076913</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="27"/>
+      <c r="F5">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A5)</f>
         <v>16</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -15864,18 +16342,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A6)</f>
         <v>64441.299999999996</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="27"/>
+      <c r="F6">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A6)</f>
         <v>9</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -15890,18 +16369,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A7)</f>
         <v>67242.51761904762</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="27"/>
+      <c r="F7">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A7)</f>
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -15916,18 +16396,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A8)</f>
         <v>69806.945769230777</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="27"/>
+      <c r="F8">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A8)</f>
         <v>18</v>
       </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
       <c r="G8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -15942,18 +16423,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A9)</f>
         <v>73109.377727272746</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="27"/>
+      <c r="F9">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A9)</f>
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -15968,18 +16450,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A10)</f>
         <v>66910.765555555554</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="27"/>
+      <c r="F10">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A10)</f>
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -15994,18 +16477,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A11)</f>
         <v>74673.974761904756</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="27"/>
+      <c r="F11">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A11)</f>
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -16020,18 +16504,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A12)</f>
         <v>75179.064482758593</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="27"/>
+      <c r="F12">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A12)</f>
         <v>19</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -16046,18 +16531,19 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A13)</f>
         <v>66432.455882352937</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="27"/>
+      <c r="F13">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A13)</f>
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
       <c r="G13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -16072,78 +16558,81 @@
         <f>AVERAGEIFS(staff[Salary],staff[Department],A14)</f>
         <v>71897.095555555556</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="27"/>
+      <c r="F14">
         <f>COUNTIFS(staff[Employee type],"Permanent",staff[Department],A14)</f>
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="28.8">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:18" ht="28.8">
+      <c r="A16" s="51" t="s">
         <v>774</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A17" s="37" t="str" cm="1">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A17" s="30" t="str" cm="1">
         <f t="array" ref="A17:M17">staff[#Headers]</f>
         <v>Emp ID</v>
       </c>
-      <c r="B17" s="37" t="str">
+      <c r="B17" s="30" t="str">
         <v>First Name</v>
       </c>
-      <c r="C17" s="37" t="str">
+      <c r="C17" s="30" t="str">
         <v>Last Name</v>
       </c>
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="30" t="str">
         <v>Gender</v>
       </c>
-      <c r="E17" s="37" t="str">
+      <c r="E17" s="30" t="str">
         <v>Department</v>
       </c>
-      <c r="F17" s="37" t="str">
+      <c r="F17" s="30" t="str">
         <v>Salary</v>
       </c>
-      <c r="G17" s="37" t="str">
+      <c r="G17" s="30" t="str">
         <v>Salary Bucket</v>
       </c>
-      <c r="H17" s="37" t="str">
+      <c r="H17" s="30" t="str">
         <v>Start Date</v>
       </c>
-      <c r="I17" s="37" t="str">
+      <c r="I17" s="30" t="str">
         <v>FTE</v>
       </c>
-      <c r="J17" s="37" t="str">
+      <c r="J17" s="30" t="str">
         <v>Employee type</v>
       </c>
-      <c r="K17" s="37" t="str">
+      <c r="K17" s="30" t="str">
         <v>Work location</v>
       </c>
-      <c r="L17" s="37" t="str">
+      <c r="L17" s="30" t="str">
         <v>Tenure</v>
       </c>
-      <c r="M17" s="37" t="str">
+      <c r="M17" s="30" t="str">
         <v>Work Type</v>
       </c>
-      <c r="N17" s="38"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="30"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="str" cm="1">
         <f t="array" ref="A18:M64">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;=100000)</f>
         <v>PR00147</v>
@@ -16166,10 +16655,10 @@
       <c r="G18" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18">
         <v>43416</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="29">
         <v>1</v>
       </c>
       <c r="J18" t="str">
@@ -16185,7 +16674,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="str">
         <v>PR00746</v>
       </c>
@@ -16207,10 +16696,10 @@
       <c r="G19" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19">
         <v>43908</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="29">
         <v>1</v>
       </c>
       <c r="J19" t="str">
@@ -16226,7 +16715,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" t="str">
         <v>PR01159</v>
       </c>
@@ -16248,10 +16737,10 @@
       <c r="G20" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20">
         <v>43759</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="29">
         <v>0.6</v>
       </c>
       <c r="J20" t="str">
@@ -16267,7 +16756,7 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" t="str">
         <v>PR02010</v>
       </c>
@@ -16289,10 +16778,10 @@
       <c r="G21" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21">
         <v>44004</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="29">
         <v>1</v>
       </c>
       <c r="J21" t="str">
@@ -16308,7 +16797,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" t="str">
         <v>PR02208</v>
       </c>
@@ -16330,10 +16819,10 @@
       <c r="G22" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22">
         <v>44315</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="29">
         <v>1</v>
       </c>
       <c r="J22" t="str">
@@ -16349,7 +16838,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" t="str">
         <v>PR02288</v>
       </c>
@@ -16371,10 +16860,10 @@
       <c r="G23" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23">
         <v>43874</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="29">
         <v>1</v>
       </c>
       <c r="J23" t="str">
@@ -16390,7 +16879,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" t="str">
         <v>PR03886</v>
       </c>
@@ -16412,10 +16901,10 @@
       <c r="G24" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24">
         <v>44431</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="29">
         <v>1</v>
       </c>
       <c r="J24" t="str">
@@ -16431,7 +16920,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" t="str">
         <v>PR04601</v>
       </c>
@@ -16453,10 +16942,10 @@
       <c r="G25" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25">
         <v>44502</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="29">
         <v>1</v>
       </c>
       <c r="J25" t="str">
@@ -16472,7 +16961,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" t="str">
         <v>SQ00022</v>
       </c>
@@ -16494,10 +16983,10 @@
       <c r="G26" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26">
         <v>43914</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
       <c r="J26" t="str">
@@ -16513,7 +17002,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" t="str">
         <v>SQ00144</v>
       </c>
@@ -16535,10 +17024,10 @@
       <c r="G27" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27">
         <v>44120</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="29">
         <v>1</v>
       </c>
       <c r="J27" t="str">
@@ -16554,7 +17043,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" t="str">
         <v>SQ00498</v>
       </c>
@@ -16576,10 +17065,10 @@
       <c r="G28" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28">
         <v>44393</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="29">
         <v>1</v>
       </c>
       <c r="J28" t="str">
@@ -16595,7 +17084,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" t="str">
         <v>SQ01620</v>
       </c>
@@ -16617,10 +17106,10 @@
       <c r="G29" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29">
         <v>43255</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="29">
         <v>1</v>
       </c>
       <c r="J29" t="str">
@@ -16636,7 +17125,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" t="str">
         <v>SQ02035</v>
       </c>
@@ -16658,10 +17147,10 @@
       <c r="G30" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30">
         <v>43256</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="29">
         <v>1</v>
       </c>
       <c r="J30" t="str">
@@ -16677,7 +17166,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" t="str">
         <v>SQ02035</v>
       </c>
@@ -16699,10 +17188,10 @@
       <c r="G31" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31">
         <v>43256</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="29">
         <v>1</v>
       </c>
       <c r="J31" t="str">
@@ -16718,7 +17207,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" t="str">
         <v>SQ02174</v>
       </c>
@@ -16740,10 +17229,10 @@
       <c r="G32" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32">
         <v>44193</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="29">
         <v>1</v>
       </c>
       <c r="J32" t="str">
@@ -16781,10 +17270,10 @@
       <c r="G33" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33">
         <v>44251</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
       <c r="J33" t="str">
@@ -16822,10 +17311,10 @@
       <c r="G34" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34">
         <v>43649</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="29">
         <v>1</v>
       </c>
       <c r="J34" t="str">
@@ -16863,10 +17352,10 @@
       <c r="G35" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35">
         <v>43521</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="29">
         <v>1</v>
       </c>
       <c r="J35" t="str">
@@ -16904,10 +17393,10 @@
       <c r="G36" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36">
         <v>43936</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="29">
         <v>1</v>
       </c>
       <c r="J36" t="str">
@@ -16945,10 +17434,10 @@
       <c r="G37" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37">
         <v>43325</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="29">
         <v>0.9</v>
       </c>
       <c r="J37" t="str">
@@ -16986,10 +17475,10 @@
       <c r="G38" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38">
         <v>44396</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="29">
         <v>1</v>
       </c>
       <c r="J38" t="str">
@@ -17027,10 +17516,10 @@
       <c r="G39" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39">
         <v>43945</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="29">
         <v>1</v>
       </c>
       <c r="J39" t="str">
@@ -17068,10 +17557,10 @@
       <c r="G40" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40">
         <v>43402</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="29">
         <v>1</v>
       </c>
       <c r="J40" t="str">
@@ -17109,10 +17598,10 @@
       <c r="G41" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41">
         <v>43902</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="29">
         <v>0.9</v>
       </c>
       <c r="J41" t="str">
@@ -17150,10 +17639,10 @@
       <c r="G42" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42">
         <v>43801</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="29">
         <v>1</v>
       </c>
       <c r="J42" t="str">
@@ -17191,10 +17680,10 @@
       <c r="G43" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43">
         <v>44019</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="29">
         <v>0.8</v>
       </c>
       <c r="J43" t="str">
@@ -17232,10 +17721,10 @@
       <c r="G44" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44">
         <v>43857</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="29">
         <v>1</v>
       </c>
       <c r="J44" t="str">
@@ -17273,10 +17762,10 @@
       <c r="G45" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45">
         <v>43563</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="29">
         <v>1</v>
       </c>
       <c r="J45" t="str">
@@ -17314,10 +17803,10 @@
       <c r="G46" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46">
         <v>43563</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="29">
         <v>1</v>
       </c>
       <c r="J46" t="str">
@@ -17355,10 +17844,10 @@
       <c r="G47" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47">
         <v>44067</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="29">
         <v>0.8</v>
       </c>
       <c r="J47" t="str">
@@ -17396,10 +17885,10 @@
       <c r="G48" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48">
         <v>43815</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="29">
         <v>1</v>
       </c>
       <c r="J48" t="str">
@@ -17437,10 +17926,10 @@
       <c r="G49" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49">
         <v>43258</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="29">
         <v>1</v>
       </c>
       <c r="J49" t="str">
@@ -17478,10 +17967,10 @@
       <c r="G50" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50">
         <v>43902</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="29">
         <v>1</v>
       </c>
       <c r="J50" t="str">
@@ -17519,10 +18008,10 @@
       <c r="G51" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51">
         <v>43250</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="29">
         <v>1</v>
       </c>
       <c r="J51" t="str">
@@ -17560,10 +18049,10 @@
       <c r="G52" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52">
         <v>43250</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="29">
         <v>1</v>
       </c>
       <c r="J52" t="str">
@@ -17601,10 +18090,10 @@
       <c r="G53" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53">
         <v>43291</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="29">
         <v>1</v>
       </c>
       <c r="J53" t="str">
@@ -17642,10 +18131,10 @@
       <c r="G54" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54">
         <v>44039</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="29">
         <v>1</v>
       </c>
       <c r="J54" t="str">
@@ -17683,10 +18172,10 @@
       <c r="G55" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55">
         <v>44270</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="29">
         <v>0.7</v>
       </c>
       <c r="J55" t="str">
@@ -17724,10 +18213,10 @@
       <c r="G56" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H56" s="36">
+      <c r="H56">
         <v>44270</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="29">
         <v>0.7</v>
       </c>
       <c r="J56" t="str">
@@ -17765,10 +18254,10 @@
       <c r="G57" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57">
         <v>43895</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="29">
         <v>0.7</v>
       </c>
       <c r="J57" t="str">
@@ -17806,10 +18295,10 @@
       <c r="G58" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H58" s="36">
+      <c r="H58">
         <v>43895</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="29">
         <v>0.7</v>
       </c>
       <c r="J58" t="str">
@@ -17847,10 +18336,10 @@
       <c r="G59" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H59" s="36">
+      <c r="H59">
         <v>43949</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="29">
         <v>0.4</v>
       </c>
       <c r="J59" t="str">
@@ -17888,10 +18377,10 @@
       <c r="G60" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60">
         <v>43949</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="29">
         <v>0.4</v>
       </c>
       <c r="J60" t="str">
@@ -17929,10 +18418,10 @@
       <c r="G61" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61">
         <v>44021</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="29">
         <v>1</v>
       </c>
       <c r="J61" t="str">
@@ -17970,10 +18459,10 @@
       <c r="G62" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62">
         <v>44021</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="29">
         <v>1</v>
       </c>
       <c r="J62" t="str">
@@ -18011,10 +18500,10 @@
       <c r="G63" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63">
         <v>43311</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="29">
         <v>1</v>
       </c>
       <c r="J63" t="str">
@@ -18052,10 +18541,10 @@
       <c r="G64" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H64" s="36">
+      <c r="H64">
         <v>43434</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="29">
         <v>1</v>
       </c>
       <c r="J64" t="str">
@@ -18071,82 +18560,85 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
-      <c r="H65" s="36"/>
-    </row>
-    <row r="66" spans="1:13" ht="18">
-      <c r="A66" s="29" t="s">
+    <row r="65" spans="1:14">
+      <c r="I65" s="29"/>
+    </row>
+    <row r="66" spans="1:14" ht="18">
+      <c r="A66" s="48" t="s">
         <v>776</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="45" t="s">
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="38" t="s">
         <v>777</v>
       </c>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="B67" s="28" t="s">
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="B67" s="49" t="s">
         <v>775</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="44">
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="37">
         <v>115000</v>
       </c>
-      <c r="H67" s="36"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="42" t="str" cm="1">
+      <c r="I67" s="29"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="35" t="str" cm="1">
         <f t="array" ref="A68:M68">staff[#Headers]</f>
         <v>Emp ID</v>
       </c>
-      <c r="B68" s="42" t="str">
+      <c r="B68" s="35" t="str">
         <v>First Name</v>
       </c>
-      <c r="C68" s="42" t="str">
+      <c r="C68" s="35" t="str">
         <v>Last Name</v>
       </c>
-      <c r="D68" s="42" t="str">
+      <c r="D68" s="35" t="str">
         <v>Gender</v>
       </c>
-      <c r="E68" s="42" t="str">
+      <c r="E68" s="35" t="str">
         <v>Department</v>
       </c>
-      <c r="F68" s="42" t="str">
+      <c r="F68" s="35" t="str">
         <v>Salary</v>
       </c>
-      <c r="G68" s="42" t="str">
+      <c r="G68" s="35" t="str">
         <v>Salary Bucket</v>
       </c>
-      <c r="H68" s="43" t="str">
+      <c r="H68" s="35" t="str">
         <v>Start Date</v>
       </c>
-      <c r="I68" s="42" t="str">
+      <c r="I68" s="36" t="str">
         <v>FTE</v>
       </c>
-      <c r="J68" s="42" t="str">
+      <c r="J68" s="35" t="str">
         <v>Employee type</v>
       </c>
-      <c r="K68" s="42" t="str">
+      <c r="K68" s="35" t="str">
         <v>Work location</v>
       </c>
-      <c r="L68" s="42" t="str">
+      <c r="L68" s="35" t="str">
         <v>Tenure</v>
       </c>
-      <c r="M68" s="42" t="str">
+      <c r="M68" s="35" t="str">
         <v>Work Type</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="36" t="str" cm="1">
-        <f t="array" ref="A69:M76">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;=F67)</f>
+      <c r="N68" s="35"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="29" t="str" cm="1">
+        <f t="array" ref="A69:M76">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;=G67)</f>
         <v>PR00147</v>
       </c>
       <c r="B69" t="str">
@@ -18167,10 +18659,10 @@
       <c r="G69" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H69" s="36">
+      <c r="H69">
         <v>43416</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="29">
         <v>1</v>
       </c>
       <c r="J69" t="str">
@@ -18186,7 +18678,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:14">
       <c r="A70" t="str">
         <v>PR02010</v>
       </c>
@@ -18208,10 +18700,10 @@
       <c r="G70" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H70" s="36">
+      <c r="H70">
         <v>44004</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="29">
         <v>1</v>
       </c>
       <c r="J70" t="str">
@@ -18227,7 +18719,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:14">
       <c r="A71" t="str">
         <v>PR03886</v>
       </c>
@@ -18249,10 +18741,10 @@
       <c r="G71" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H71" s="36">
+      <c r="H71">
         <v>44431</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="29">
         <v>1</v>
       </c>
       <c r="J71" t="str">
@@ -18268,7 +18760,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:14">
       <c r="A72" t="str">
         <v>SQ00144</v>
       </c>
@@ -18290,10 +18782,10 @@
       <c r="G72" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H72" s="36">
+      <c r="H72">
         <v>44120</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="29">
         <v>1</v>
       </c>
       <c r="J72" t="str">
@@ -18309,7 +18801,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:14">
       <c r="A73" t="str">
         <v>SQ02174</v>
       </c>
@@ -18331,10 +18823,10 @@
       <c r="G73" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H73" s="36">
+      <c r="H73">
         <v>44193</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="29">
         <v>1</v>
       </c>
       <c r="J73" t="str">
@@ -18350,7 +18842,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:14">
       <c r="A74" t="str">
         <v>SQ04612</v>
       </c>
@@ -18372,10 +18864,10 @@
       <c r="G74" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H74" s="36">
+      <c r="H74">
         <v>43902</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="29">
         <v>0.9</v>
       </c>
       <c r="J74" t="str">
@@ -18391,7 +18883,7 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14">
       <c r="A75" t="str">
         <v>VT04093</v>
       </c>
@@ -18413,10 +18905,10 @@
       <c r="G75" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H75" s="36">
+      <c r="H75">
         <v>43949</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="29">
         <v>0.4</v>
       </c>
       <c r="J75" t="str">
@@ -18432,7 +18924,7 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14">
       <c r="A76" t="str">
         <v>VT04093</v>
       </c>
@@ -18454,10 +18946,10 @@
       <c r="G76" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H76" s="36">
+      <c r="H76">
         <v>43949</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="29">
         <v>0.4</v>
       </c>
       <c r="J76" t="str">
@@ -18473,70 +18965,72 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
-      <c r="H77" s="36"/>
-    </row>
-    <row r="78" spans="1:13" ht="21">
-      <c r="A78" s="30" t="s">
+    <row r="77" spans="1:14">
+      <c r="I77" s="29"/>
+    </row>
+    <row r="78" spans="1:14" ht="21">
+      <c r="A78" s="50" t="s">
         <v>778</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="30"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="42" t="str" cm="1">
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="35" t="str" cm="1">
         <f t="array" ref="A79:M79">staff[#Headers]</f>
         <v>Emp ID</v>
       </c>
-      <c r="B79" s="42" t="str">
+      <c r="B79" s="35" t="str">
         <v>First Name</v>
       </c>
-      <c r="C79" s="42" t="str">
+      <c r="C79" s="35" t="str">
         <v>Last Name</v>
       </c>
-      <c r="D79" s="42" t="str">
+      <c r="D79" s="35" t="str">
         <v>Gender</v>
       </c>
-      <c r="E79" s="42" t="str">
+      <c r="E79" s="35" t="str">
         <v>Department</v>
       </c>
-      <c r="F79" s="42" t="str">
+      <c r="F79" s="35" t="str">
         <v>Salary</v>
       </c>
-      <c r="G79" s="42" t="str">
+      <c r="G79" s="35" t="str">
         <v>Salary Bucket</v>
       </c>
-      <c r="H79" s="43" t="str">
+      <c r="H79" s="35" t="str">
         <v>Start Date</v>
       </c>
-      <c r="I79" s="42" t="str">
+      <c r="I79" s="36" t="str">
         <v>FTE</v>
       </c>
-      <c r="J79" s="42" t="str">
+      <c r="J79" s="35" t="str">
         <v>Employee type</v>
       </c>
-      <c r="K79" s="42" t="str">
+      <c r="K79" s="35" t="str">
         <v>Work location</v>
       </c>
-      <c r="L79" s="42" t="str">
+      <c r="L79" s="35" t="str">
         <v>Tenure</v>
       </c>
-      <c r="M79" s="42" t="str">
+      <c r="M79" s="35" t="str">
         <v>Work Type</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="35"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="str" cm="1">
-        <f t="array" ref="A80:F83">_xlfn._xlws.FILTER(staff[[Emp ID]:[Salary]],(staff[Salary]&gt;F67)*(staff[Gender]="Female"))</f>
+        <f t="array" ref="A80:F83">_xlfn._xlws.FILTER(staff[[Emp ID]:[Salary]],(staff[Salary]&gt;G67)*(staff[Gender]="Female"))</f>
         <v>SQ02174</v>
       </c>
       <c r="B80" t="str">
@@ -18554,9 +19048,9 @@
       <c r="F80">
         <v>118442.54</v>
       </c>
-      <c r="H80" s="36"/>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="I80" s="29"/>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" t="str">
         <v>SQ04612</v>
       </c>
@@ -18575,9 +19069,9 @@
       <c r="F81">
         <v>120000</v>
       </c>
-      <c r="H81" s="36"/>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="I81" s="29"/>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" t="str">
         <v>VT04093</v>
       </c>
@@ -18596,9 +19090,9 @@
       <c r="F82">
         <v>116767.63</v>
       </c>
-      <c r="H82" s="36"/>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="I82" s="29"/>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" t="str">
         <v>VT04093</v>
       </c>
@@ -18617,75 +19111,77 @@
       <c r="F83">
         <v>116767.63</v>
       </c>
-      <c r="H83" s="36"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="H84" s="36"/>
-    </row>
-    <row r="85" spans="1:15" ht="21">
-      <c r="A85" s="30" t="s">
+      <c r="I83" s="29"/>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="I84" s="29"/>
+    </row>
+    <row r="85" spans="1:16" ht="21">
+      <c r="A85" s="50" t="s">
         <v>779</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="42" t="str" cm="1">
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="50"/>
+      <c r="O85" s="50"/>
+      <c r="P85" s="50"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="35" t="str" cm="1">
         <f t="array" ref="A86:M86">staff[#Headers]</f>
         <v>Emp ID</v>
       </c>
-      <c r="B86" s="42" t="str">
+      <c r="B86" s="35" t="str">
         <v>First Name</v>
       </c>
-      <c r="C86" s="42" t="str">
+      <c r="C86" s="35" t="str">
         <v>Last Name</v>
       </c>
-      <c r="D86" s="42" t="str">
+      <c r="D86" s="35" t="str">
         <v>Gender</v>
       </c>
-      <c r="E86" s="42" t="str">
+      <c r="E86" s="35" t="str">
         <v>Department</v>
       </c>
-      <c r="F86" s="42" t="str">
+      <c r="F86" s="35" t="str">
         <v>Salary</v>
       </c>
-      <c r="G86" s="42" t="str">
+      <c r="G86" s="35" t="str">
         <v>Salary Bucket</v>
       </c>
-      <c r="H86" s="43" t="str">
+      <c r="H86" s="35" t="str">
         <v>Start Date</v>
       </c>
-      <c r="I86" s="42" t="str">
+      <c r="I86" s="36" t="str">
         <v>FTE</v>
       </c>
-      <c r="J86" s="42" t="str">
+      <c r="J86" s="35" t="str">
         <v>Employee type</v>
       </c>
-      <c r="K86" s="42" t="str">
+      <c r="K86" s="35" t="str">
         <v>Work location</v>
       </c>
-      <c r="L86" s="42" t="str">
+      <c r="L86" s="35" t="str">
         <v>Tenure</v>
       </c>
-      <c r="M86" s="42" t="str">
+      <c r="M86" s="35" t="str">
         <v>Work Type</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="N86" s="35"/>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" t="str" cm="1">
-        <f t="array" ref="A87:M90">_xlfn._xlws.FILTER(staff[],(staff[Salary]&gt;F67)*(staff[Gender]="Female")*(staff[Start Date] &gt; DATE(2019,12,31)))</f>
+        <f t="array" ref="A87:M90">_xlfn._xlws.FILTER(staff[],(staff[Salary]&gt;G67)*(staff[Gender]="Female")*(staff[Start Date] &gt; DATE(2019,12,31)))</f>
         <v>SQ02174</v>
       </c>
       <c r="B87" t="str">
@@ -18706,10 +19202,10 @@
       <c r="G87" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H87" s="36">
+      <c r="H87">
         <v>44193</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="29">
         <v>1</v>
       </c>
       <c r="J87" t="str">
@@ -18725,7 +19221,7 @@
         <v>Full time</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:16">
       <c r="A88" t="str">
         <v>SQ04612</v>
       </c>
@@ -18747,10 +19243,10 @@
       <c r="G88" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H88" s="36">
+      <c r="H88">
         <v>43902</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="29">
         <v>0.9</v>
       </c>
       <c r="J88" t="str">
@@ -18766,7 +19262,7 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:16">
       <c r="A89" t="str">
         <v>VT04093</v>
       </c>
@@ -18788,10 +19284,10 @@
       <c r="G89" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H89" s="36">
+      <c r="H89">
         <v>43949</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="29">
         <v>0.4</v>
       </c>
       <c r="J89" t="str">
@@ -18807,7 +19303,7 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:16">
       <c r="A90" t="str">
         <v>VT04093</v>
       </c>
@@ -18829,10 +19325,10 @@
       <c r="G90" t="str">
         <v>Above 100k</v>
       </c>
-      <c r="H90" s="36">
+      <c r="H90">
         <v>43949</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="29">
         <v>0.4</v>
       </c>
       <c r="J90" t="str">
@@ -18848,237 +19344,254 @@
         <v>Part time</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
-      <c r="H91" s="36"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="1:15" ht="25.8">
-      <c r="A93" s="32" t="s">
+    <row r="91" spans="1:16">
+      <c r="I91" s="29"/>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="I92" s="29"/>
+    </row>
+    <row r="93" spans="1:16" ht="23.4">
+      <c r="A93" s="47" t="s">
         <v>784</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="H94" s="36"/>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="B95" s="42" t="s">
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="I94" s="29"/>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="B95" s="35" t="s">
         <v>780</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="D95" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H95" s="36"/>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="E95" s="35"/>
+      <c r="I95" s="29"/>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="B96" s="46">
+      <c r="B96" s="39">
         <f>MIN(staff[Salary])</f>
         <v>28160.79</v>
       </c>
-      <c r="C96" s="46">
+      <c r="C96" s="39">
         <f>_xlfn.MINIFS(staff[Salary],staff[Gender],C95)</f>
         <v>28160.79</v>
       </c>
-      <c r="D96" s="46">
+      <c r="D96" s="39">
         <f>_xlfn.MINIFS(staff[Salary],staff[Gender],D95)</f>
         <v>28305.08</v>
       </c>
-      <c r="H96" s="36"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="E96" s="40"/>
+      <c r="I96" s="29"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="B97" s="46">
+      <c r="B97" s="39">
         <f>MAX(staff[Salary])</f>
         <v>120000</v>
       </c>
-      <c r="C97" s="46">
+      <c r="C97" s="39">
         <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],C95)</f>
         <v>120000</v>
       </c>
-      <c r="D97" s="46">
+      <c r="D97" s="39">
         <f>_xlfn.MAXIFS(staff[Salary],staff[Gender],D95)</f>
         <v>120000</v>
       </c>
-      <c r="H97" s="36"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="E97" s="40"/>
+      <c r="I97" s="29"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="B98" s="46">
-        <f>LARGE(staff[Salary],E98)</f>
+      <c r="B98" s="39">
+        <f>LARGE(staff[Salary],F98)</f>
         <v>120000</v>
       </c>
-      <c r="C98" s="46" cm="1">
-        <f t="array" ref="C98">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E98)</f>
+      <c r="C98" s="39" cm="1">
+        <f t="array" ref="C98">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),F98)</f>
         <v>120000</v>
       </c>
-      <c r="D98" s="46" cm="1">
-        <f t="array" ref="D98">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]=D95),E98)</f>
+      <c r="D98" s="39" cm="1">
+        <f t="array" ref="D98">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]=D95),F98)</f>
         <v>120000</v>
       </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="H98" s="36"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="B99" s="46">
-        <f>LARGE(staff[Salary],E99)</f>
+      <c r="E98" s="40"/>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="I98" s="29"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="B99" s="39">
+        <f>LARGE(staff[Salary],F99)</f>
         <v>120000</v>
       </c>
-      <c r="C99" s="46" cm="1">
-        <f t="array" ref="C99">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E99)</f>
+      <c r="C99" s="39" cm="1">
+        <f t="array" ref="C99">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),F99)</f>
         <v>119022.49</v>
       </c>
-      <c r="D99" s="46" cm="1">
-        <f t="array" ref="D99">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E99)</f>
+      <c r="D99" s="39" cm="1">
+        <f t="array" ref="D99">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),F99)</f>
         <v>118442.54</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="40"/>
+      <c r="F99">
         <v>2</v>
       </c>
-      <c r="H99" s="36"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" s="46">
-        <f>LARGE(staff[Salary],E100)</f>
+      <c r="I99" s="29"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="B100" s="39">
+        <f>LARGE(staff[Salary],F100)</f>
         <v>119022.49</v>
       </c>
-      <c r="C100" s="46" cm="1">
-        <f t="array" ref="C100">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E100)</f>
+      <c r="C100" s="39" cm="1">
+        <f t="array" ref="C100">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),F100)</f>
         <v>118976.16</v>
       </c>
-      <c r="D100" s="46" cm="1">
-        <f t="array" ref="D100">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E100)</f>
+      <c r="D100" s="39" cm="1">
+        <f t="array" ref="D100">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),F100)</f>
         <v>116767.63</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="40"/>
+      <c r="F100">
         <v>3</v>
       </c>
-      <c r="H100" s="36"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="B101" s="46">
-        <f>LARGE(staff[Salary],E101)</f>
+      <c r="I100" s="29"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="B101" s="39">
+        <f>LARGE(staff[Salary],F101)</f>
         <v>118976.16</v>
       </c>
-      <c r="C101" s="46" cm="1">
-        <f t="array" ref="C101">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E101)</f>
+      <c r="C101" s="39" cm="1">
+        <f t="array" ref="C101">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),F101)</f>
         <v>115191.38</v>
       </c>
-      <c r="D101" s="46" cm="1">
-        <f t="array" ref="D101">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E101)</f>
+      <c r="D101" s="39" cm="1">
+        <f t="array" ref="D101">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),F101)</f>
         <v>116767.63</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="40"/>
+      <c r="F101">
         <v>4</v>
       </c>
-      <c r="H101" s="36"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="B102" s="46">
-        <f>LARGE(staff[Salary],E102)</f>
+      <c r="I101" s="29"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102" s="39">
+        <f>LARGE(staff[Salary],F102)</f>
         <v>118442.54</v>
       </c>
-      <c r="C102" s="46" cm="1">
-        <f t="array" ref="C102">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),E102)</f>
+      <c r="C102" s="39" cm="1">
+        <f t="array" ref="C102">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Male"),F102)</f>
         <v>114691.03</v>
       </c>
-      <c r="D102" s="46" cm="1">
-        <f t="array" ref="D102">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),E102)</f>
+      <c r="D102" s="39" cm="1">
+        <f t="array" ref="D102">LARGE(_xlfn._xlws.FILTER(staff[Salary],staff[Gender]="Female"),F102)</f>
         <v>114772.32</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="40"/>
+      <c r="F102">
         <v>5</v>
       </c>
-      <c r="H102" s="36"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="H103" s="36"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="48" t="s">
+      <c r="I102" s="29"/>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="B103" s="40"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="I103" s="29"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="53" t="s">
         <v>785</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
-      <c r="H104" s="36"/>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="44"/>
+      <c r="I104" s="29"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>789</v>
       </c>
-      <c r="B105" s="46" t="e" cm="1">
+      <c r="B105" s="39" t="e" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">TAKE(_xlfn._xlws.SORT(staff[Salary],,-1),5)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="46"/>
-      <c r="H105" s="36"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" s="46"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="46"/>
-      <c r="H106" s="36"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" s="46"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="46"/>
-      <c r="H107" s="36"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="H108" s="36"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" s="46"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="46"/>
-      <c r="H109" s="36"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="H110" s="36"/>
-    </row>
-    <row r="111" spans="1:8" ht="21">
-      <c r="A111" s="30" t="s">
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="40"/>
+      <c r="I105" s="29"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
+      <c r="I106" s="29"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
+      <c r="I107" s="29"/>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="40"/>
+      <c r="I108" s="29"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
+      <c r="I109" s="29"/>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="I110" s="29"/>
+    </row>
+    <row r="111" spans="1:9" ht="23.4">
+      <c r="A111" s="47" t="s">
         <v>748</v>
       </c>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="H111" s="36"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="H112" s="36"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="46"/>
+      <c r="I111" s="29"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="I112" s="29"/>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="26" t="s">
         <v>4</v>
       </c>
@@ -19089,9 +19602,9 @@
         <f>COUNTA(_xlfn.ANCHORARRAY(A114))</f>
         <v>12</v>
       </c>
-      <c r="H113" s="36"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="29"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="str" cm="1">
         <f t="array" ref="A114:A125">_xlfn.UNIQUE(staff[Department])</f>
         <v>Training</v>
@@ -19100,362 +19613,365 @@
         <f>_xlfn.TEXTJOIN(", ",TRUE,_xlfn.ANCHORARRAY(A114))</f>
         <v>Training, Business Development, Engineering, Marketing, Legal, Accounting, Human Resources, Research and Development, Services, Product Management, Support, Sales</v>
       </c>
-      <c r="H114" s="36"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="29"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="str">
         <v>Business Development</v>
       </c>
-      <c r="H115" s="36"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="29"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="str">
         <v>Engineering</v>
       </c>
-      <c r="H116" s="36"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="29"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="str">
         <v>Marketing</v>
       </c>
-      <c r="H117" s="36"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="29"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="str">
         <v>Legal</v>
       </c>
-      <c r="H118" s="36"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="29"/>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="str">
         <v>Accounting</v>
       </c>
-      <c r="H119" s="36"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="29"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="H120" s="36"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="29"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="str">
         <v>Research and Development</v>
       </c>
-      <c r="H121" s="36"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="29"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="str">
         <v>Services</v>
       </c>
-      <c r="H122" s="36"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="29"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="str">
         <v>Product Management</v>
       </c>
-      <c r="H123" s="36"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="29"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="str">
         <v>Support</v>
       </c>
-      <c r="H124" s="36"/>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="29"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="str">
         <v>Sales</v>
       </c>
-      <c r="H125" s="36"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="H126" s="36"/>
-    </row>
-    <row r="127" spans="1:8" ht="23.4">
-      <c r="A127" s="31" t="s">
+      <c r="I125" s="29"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="I126" s="29"/>
+    </row>
+    <row r="127" spans="1:9" ht="23.4">
+      <c r="A127" s="47" t="s">
         <v>787</v>
       </c>
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="H127" s="36"/>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="I127" s="29"/>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>788</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="H128" s="36"/>
-    </row>
-    <row r="129" spans="1:19">
-      <c r="H129" s="36"/>
-    </row>
-    <row r="130" spans="1:19" ht="15" thickBot="1">
+      <c r="I128" s="29"/>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="I129" s="29"/>
+    </row>
+    <row r="130" spans="1:20" ht="15" thickBot="1">
       <c r="A130" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="49" t="str">
+      <c r="B130" s="41" t="str">
         <f>IFERROR(VLOOKUP($B$128,staff[],C130,FALSE),"Not Found")</f>
         <v>Edd</v>
       </c>
-      <c r="C130" s="51">
+      <c r="C130" s="43">
         <v>2</v>
       </c>
       <c r="D130" t="str">
         <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[First Name],"Not Found",0,1)</f>
         <v>Edd</v>
       </c>
-      <c r="H130" s="36"/>
-    </row>
-    <row r="131" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I130" s="29"/>
+    </row>
+    <row r="131" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A131" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="49" t="str">
+      <c r="B131" s="41" t="str">
         <f>IFERROR(VLOOKUP($B$128,staff[],C131,FALSE),"Not Found")</f>
         <v>MacKnockiter</v>
       </c>
-      <c r="C131" s="51">
+      <c r="C131" s="43">
         <v>3</v>
       </c>
-      <c r="H131" s="36"/>
-    </row>
-    <row r="132" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I131" s="29"/>
+    </row>
+    <row r="132" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A132" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="49" t="str">
+      <c r="B132" s="41" t="str">
         <f>IFERROR(VLOOKUP($B$128,staff[],C132,FALSE),"Not Found")</f>
         <v>Accounting</v>
       </c>
-      <c r="C132" s="51">
+      <c r="C132" s="43">
         <v>5</v>
       </c>
-      <c r="H132" s="36"/>
-    </row>
-    <row r="133" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+      <c r="I132" s="29"/>
+    </row>
+    <row r="133" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A133" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="49">
+      <c r="B133" s="41">
         <f>IFERROR(VLOOKUP($B$128,staff[],C133,FALSE),"Not Found")</f>
         <v>119022.49</v>
       </c>
-      <c r="C133" s="51">
+      <c r="C133" s="43">
         <v>6</v>
       </c>
-      <c r="H133" s="36"/>
-    </row>
-    <row r="134" spans="1:19" ht="15" thickTop="1">
-      <c r="H134" s="36"/>
-    </row>
-    <row r="135" spans="1:19" ht="23.4">
-      <c r="A135" s="31" t="s">
+      <c r="I133" s="29"/>
+    </row>
+    <row r="134" spans="1:20" ht="15" thickTop="1">
+      <c r="I134" s="29"/>
+    </row>
+    <row r="135" spans="1:20" ht="23.4">
+      <c r="A135" s="47" t="s">
         <v>790</v>
       </c>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="H135" s="36"/>
-    </row>
-    <row r="136" spans="1:19">
-      <c r="H136" s="36"/>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="B135" s="47"/>
+      <c r="C135" s="47"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="I135" s="29"/>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="I136" s="29"/>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>791</v>
       </c>
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="D137" s="50"/>
-      <c r="E137" s="41" t="s">
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="34" t="s">
         <v>792</v>
       </c>
-      <c r="G137" s="41" t="s">
+      <c r="H137" s="34" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:20">
       <c r="B138">
         <f>MATCH(B137,staff[Last Name],0)</f>
         <v>43</v>
       </c>
-      <c r="G138" t="str" cm="1">
-        <f t="array" ref="G138:S138">_xlfn.XLOOKUP(B137,staff[Last Name],staff[])</f>
+      <c r="H138" t="str" cm="1">
+        <f t="array" ref="H138:T138">_xlfn.XLOOKUP(B137,staff[Last Name],staff[])</f>
         <v>PR03532</v>
       </c>
-      <c r="H138" t="str">
+      <c r="I138" t="str">
         <v>Crawford</v>
       </c>
-      <c r="I138" t="str">
+      <c r="J138" t="str">
         <v>Scad</v>
       </c>
-      <c r="J138" t="str">
+      <c r="K138" t="str">
         <v>Male</v>
       </c>
-      <c r="K138" t="str">
+      <c r="L138" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>72876.91</v>
       </c>
-      <c r="M138" t="str">
+      <c r="N138" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>43837</v>
       </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-      <c r="P138" t="str">
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138" t="str">
         <v>Permanent</v>
       </c>
-      <c r="Q138" t="str">
+      <c r="R138" t="str">
         <v>Remote</v>
       </c>
-      <c r="R138">
+      <c r="S138">
         <v>4.4575342465753423</v>
       </c>
-      <c r="S138" t="str">
+      <c r="T138" t="str">
         <v>Full time</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15" thickBot="1">
+    <row r="139" spans="1:20" ht="15" thickBot="1">
       <c r="A139" t="s">
         <v>788</v>
       </c>
-      <c r="B139" s="49" t="str" cm="1">
+      <c r="B139" s="41" t="str" cm="1">
         <f t="array" ref="B139">INDEX(staff[Emp ID],B138)</f>
         <v>PR03532</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
       </c>
-      <c r="E139" t="str">
+      <c r="F139" t="str">
         <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[First Name],"Not Found")</f>
         <v>Edd</v>
       </c>
-      <c r="G139" t="str" cm="1">
-        <f t="array" ref="G139:G151">TRANSPOSE(_xlfn.XLOOKUP(B137,staff[Last Name],staff[]))</f>
+      <c r="H139" t="str" cm="1">
+        <f t="array" ref="H139:H151">TRANSPOSE(_xlfn.XLOOKUP(B137,staff[Last Name],staff[]))</f>
         <v>PR03532</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+    <row r="140" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A140" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="49" t="str" cm="1">
+      <c r="B140" s="41" t="str" cm="1">
         <f t="array" ref="B140">INDEX(staff[Department],B138)</f>
         <v>Human Resources</v>
       </c>
       <c r="D140" t="s">
         <v>2</v>
       </c>
-      <c r="E140" t="str">
+      <c r="F140" t="str">
         <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[Last Name],"Not Found")</f>
         <v>MacKnockiter</v>
       </c>
-      <c r="G140" t="str">
+      <c r="H140" t="str">
         <v>Crawford</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.6" thickTop="1" thickBot="1">
+    <row r="141" spans="1:20" ht="15.6" thickTop="1" thickBot="1">
       <c r="A141" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="49" cm="1">
+      <c r="B141" s="41" cm="1">
         <f t="array" ref="B141">INDEX(staff[Salary],B138)</f>
         <v>72876.91</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
       </c>
-      <c r="E141" t="str">
+      <c r="F141" t="str">
         <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[Department],"Not Found")</f>
         <v>Accounting</v>
       </c>
-      <c r="G141" t="str">
+      <c r="H141" t="str">
         <v>Scad</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15" thickTop="1">
+    <row r="142" spans="1:20" ht="15" thickTop="1">
       <c r="D142" t="s">
         <v>5</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <f>_xlfn.XLOOKUP(B128,staff[Emp ID],staff[Salary],"Not Found",0,1)</f>
         <v>119022.49</v>
       </c>
-      <c r="G142" t="str">
+      <c r="H142" t="str">
         <v>Male</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
-      <c r="G143" t="str">
+    <row r="143" spans="1:20">
+      <c r="H143" t="str">
         <v>Human Resources</v>
       </c>
-      <c r="H143" s="36"/>
-    </row>
-    <row r="144" spans="1:19">
-      <c r="G144">
+      <c r="I143" s="29"/>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="H144">
         <v>72876.91</v>
       </c>
-      <c r="H144" s="36"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="G145" t="str">
+      <c r="I144" s="29"/>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="H145" t="str">
         <v>50k to 100k</v>
       </c>
-      <c r="H145" s="36"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="G146">
+      <c r="I145" s="29"/>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="H146">
         <v>43837</v>
       </c>
-      <c r="H146" s="36"/>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147" s="36"/>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="G148" t="str">
+      <c r="I146" s="29"/>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147" s="29"/>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="H148" t="str">
         <v>Permanent</v>
       </c>
-      <c r="H148" s="36"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="G149" t="str">
+      <c r="I148" s="29"/>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="H149" t="str">
         <v>Remote</v>
       </c>
-      <c r="H149" s="36"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="G150">
+      <c r="I149" s="29"/>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="H150">
         <v>4.4575342465753423</v>
       </c>
-      <c r="H150" s="36"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="39" t="s">
+      <c r="I150" s="29"/>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="32" t="s">
         <v>765</v>
       </c>
-      <c r="G151" t="str">
+      <c r="H151" t="str">
         <v>Full time</v>
       </c>
-      <c r="H151" s="36"/>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="29"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" t="e" cm="1" vm="1">
         <f t="array" ref="A152">_xlfn._xlws.FILTER(staff[],staff[Salary]&gt;120000)</f>
         <v>#VALUE!</v>
@@ -19463,401 +19979,2694 @@
       <c r="B152" t="s">
         <v>793</v>
       </c>
-      <c r="H152" s="36"/>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="H153" s="36"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="H154" s="36"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="H155" s="36"/>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="H156" s="36"/>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="H157" s="36"/>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="H158" s="36"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="H159" s="36"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="H160" s="36"/>
-    </row>
-    <row r="161" spans="8:8">
-      <c r="H161" s="36"/>
-    </row>
-    <row r="162" spans="8:8">
-      <c r="H162" s="36"/>
-    </row>
-    <row r="163" spans="8:8">
-      <c r="H163" s="36"/>
-    </row>
-    <row r="164" spans="8:8">
-      <c r="H164" s="36"/>
-    </row>
-    <row r="165" spans="8:8">
-      <c r="H165" s="36"/>
-    </row>
-    <row r="166" spans="8:8">
-      <c r="H166" s="36"/>
-    </row>
-    <row r="167" spans="8:8">
-      <c r="H167" s="36"/>
-    </row>
-    <row r="168" spans="8:8">
-      <c r="H168" s="36"/>
-    </row>
-    <row r="169" spans="8:8">
-      <c r="H169" s="36"/>
-    </row>
-    <row r="170" spans="8:8">
-      <c r="H170" s="36"/>
-    </row>
-    <row r="171" spans="8:8">
-      <c r="H171" s="36"/>
-    </row>
-    <row r="172" spans="8:8">
-      <c r="H172" s="36"/>
-    </row>
-    <row r="173" spans="8:8">
-      <c r="H173" s="36"/>
-    </row>
-    <row r="174" spans="8:8">
-      <c r="H174" s="36"/>
-    </row>
-    <row r="175" spans="8:8">
-      <c r="H175" s="36"/>
-    </row>
-    <row r="176" spans="8:8">
-      <c r="H176" s="36"/>
-    </row>
-    <row r="177" spans="8:8">
-      <c r="H177" s="36"/>
-    </row>
-    <row r="178" spans="8:8">
-      <c r="H178" s="36"/>
-    </row>
-    <row r="179" spans="8:8">
-      <c r="H179" s="36"/>
-    </row>
-    <row r="180" spans="8:8">
-      <c r="H180" s="36"/>
-    </row>
-    <row r="181" spans="8:8">
-      <c r="H181" s="36"/>
-    </row>
-    <row r="182" spans="8:8">
-      <c r="H182" s="36"/>
-    </row>
-    <row r="183" spans="8:8">
-      <c r="H183" s="36"/>
-    </row>
-    <row r="184" spans="8:8">
-      <c r="H184" s="36"/>
-    </row>
-    <row r="185" spans="8:8">
-      <c r="H185" s="36"/>
-    </row>
-    <row r="186" spans="8:8">
-      <c r="H186" s="36"/>
-    </row>
-    <row r="187" spans="8:8">
-      <c r="H187" s="36"/>
-    </row>
-    <row r="188" spans="8:8">
-      <c r="H188" s="36"/>
-    </row>
-    <row r="189" spans="8:8">
-      <c r="H189" s="36"/>
-    </row>
-    <row r="190" spans="8:8">
-      <c r="H190" s="36"/>
-    </row>
-    <row r="191" spans="8:8">
-      <c r="H191" s="36"/>
-    </row>
-    <row r="192" spans="8:8">
-      <c r="H192" s="36"/>
-    </row>
-    <row r="193" spans="8:8">
-      <c r="H193" s="36"/>
-    </row>
-    <row r="194" spans="8:8">
-      <c r="H194" s="36"/>
-    </row>
-    <row r="195" spans="8:8">
-      <c r="H195" s="36"/>
-    </row>
-    <row r="196" spans="8:8">
-      <c r="H196" s="36"/>
-    </row>
-    <row r="197" spans="8:8">
-      <c r="H197" s="36"/>
-    </row>
-    <row r="198" spans="8:8">
-      <c r="H198" s="36"/>
-    </row>
-    <row r="199" spans="8:8">
-      <c r="H199" s="36"/>
-    </row>
-    <row r="200" spans="8:8">
-      <c r="H200" s="36"/>
-    </row>
-    <row r="201" spans="8:8">
-      <c r="H201" s="36"/>
-    </row>
-    <row r="202" spans="8:8">
-      <c r="H202" s="36"/>
-    </row>
-    <row r="203" spans="8:8">
-      <c r="H203" s="36"/>
-    </row>
-    <row r="204" spans="8:8">
-      <c r="H204" s="36"/>
-    </row>
-    <row r="205" spans="8:8">
-      <c r="H205" s="36"/>
-    </row>
-    <row r="206" spans="8:8">
-      <c r="H206" s="36"/>
-    </row>
-    <row r="207" spans="8:8">
-      <c r="H207" s="36"/>
-    </row>
-    <row r="208" spans="8:8">
-      <c r="H208" s="36"/>
-    </row>
-    <row r="209" spans="8:8">
-      <c r="H209" s="36"/>
-    </row>
-    <row r="210" spans="8:8">
-      <c r="H210" s="36"/>
-    </row>
-    <row r="211" spans="8:8">
-      <c r="H211" s="36"/>
-    </row>
-    <row r="212" spans="8:8">
-      <c r="H212" s="36"/>
-    </row>
-    <row r="213" spans="8:8">
-      <c r="H213" s="36"/>
-    </row>
-    <row r="214" spans="8:8">
-      <c r="H214" s="36"/>
-    </row>
-    <row r="215" spans="8:8">
-      <c r="H215" s="36"/>
-    </row>
-    <row r="216" spans="8:8">
-      <c r="H216" s="36"/>
-    </row>
-    <row r="217" spans="8:8">
-      <c r="H217" s="36"/>
-    </row>
-    <row r="218" spans="8:8">
-      <c r="H218" s="36"/>
-    </row>
-    <row r="219" spans="8:8">
-      <c r="H219" s="36"/>
-    </row>
-    <row r="220" spans="8:8">
-      <c r="H220" s="36"/>
-    </row>
-    <row r="221" spans="8:8">
-      <c r="H221" s="36"/>
-    </row>
-    <row r="222" spans="8:8">
-      <c r="H222" s="36"/>
-    </row>
-    <row r="223" spans="8:8">
-      <c r="H223" s="36"/>
-    </row>
-    <row r="224" spans="8:8">
-      <c r="H224" s="36"/>
-    </row>
-    <row r="225" spans="8:8">
-      <c r="H225" s="36"/>
-    </row>
-    <row r="226" spans="8:8">
-      <c r="H226" s="36"/>
-    </row>
-    <row r="227" spans="8:8">
-      <c r="H227" s="36"/>
-    </row>
-    <row r="228" spans="8:8">
-      <c r="H228" s="36"/>
-    </row>
-    <row r="229" spans="8:8">
-      <c r="H229" s="36"/>
-    </row>
-    <row r="230" spans="8:8">
-      <c r="H230" s="36"/>
-    </row>
-    <row r="231" spans="8:8">
-      <c r="H231" s="36"/>
-    </row>
-    <row r="232" spans="8:8">
-      <c r="H232" s="36"/>
-    </row>
-    <row r="233" spans="8:8">
-      <c r="H233" s="36"/>
-    </row>
-    <row r="234" spans="8:8">
-      <c r="H234" s="36"/>
-    </row>
-    <row r="235" spans="8:8">
-      <c r="H235" s="36"/>
-    </row>
-    <row r="236" spans="8:8">
-      <c r="H236" s="36"/>
-    </row>
-    <row r="237" spans="8:8">
-      <c r="H237" s="36"/>
-    </row>
-    <row r="238" spans="8:8">
-      <c r="H238" s="36"/>
-    </row>
-    <row r="239" spans="8:8">
-      <c r="H239" s="36"/>
-    </row>
-    <row r="240" spans="8:8">
-      <c r="H240" s="36"/>
-    </row>
-    <row r="241" spans="8:8">
-      <c r="H241" s="36"/>
-    </row>
-    <row r="242" spans="8:8">
-      <c r="H242" s="36"/>
-    </row>
-    <row r="243" spans="8:8">
-      <c r="H243" s="36"/>
-    </row>
-    <row r="244" spans="8:8">
-      <c r="H244" s="36"/>
-    </row>
-    <row r="245" spans="8:8">
-      <c r="H245" s="36"/>
-    </row>
-    <row r="246" spans="8:8">
-      <c r="H246" s="36"/>
-    </row>
-    <row r="247" spans="8:8">
-      <c r="H247" s="36"/>
-    </row>
-    <row r="248" spans="8:8">
-      <c r="H248" s="36"/>
-    </row>
-    <row r="249" spans="8:8">
-      <c r="H249" s="36"/>
-    </row>
-    <row r="250" spans="8:8">
-      <c r="H250" s="36"/>
-    </row>
-    <row r="251" spans="8:8">
-      <c r="H251" s="36"/>
-    </row>
-    <row r="252" spans="8:8">
-      <c r="H252" s="36"/>
-    </row>
-    <row r="253" spans="8:8">
-      <c r="H253" s="36"/>
-    </row>
-    <row r="254" spans="8:8">
-      <c r="H254" s="36"/>
-    </row>
-    <row r="255" spans="8:8">
-      <c r="H255" s="36"/>
-    </row>
-    <row r="256" spans="8:8">
-      <c r="H256" s="36"/>
-    </row>
-    <row r="257" spans="8:8">
-      <c r="H257" s="36"/>
-    </row>
-    <row r="258" spans="8:8">
-      <c r="H258" s="36"/>
-    </row>
-    <row r="259" spans="8:8">
-      <c r="H259" s="36"/>
-    </row>
-    <row r="260" spans="8:8">
-      <c r="H260" s="36"/>
-    </row>
-    <row r="261" spans="8:8">
-      <c r="H261" s="36"/>
-    </row>
-    <row r="262" spans="8:8">
-      <c r="H262" s="36"/>
-    </row>
-    <row r="263" spans="8:8">
-      <c r="H263" s="36"/>
-    </row>
-    <row r="264" spans="8:8">
-      <c r="H264" s="36"/>
-    </row>
-    <row r="265" spans="8:8">
-      <c r="H265" s="36"/>
-    </row>
-    <row r="266" spans="8:8">
-      <c r="H266" s="36"/>
-    </row>
-    <row r="267" spans="8:8">
-      <c r="H267" s="36"/>
-    </row>
-    <row r="268" spans="8:8">
-      <c r="H268" s="36"/>
-    </row>
-    <row r="269" spans="8:8">
-      <c r="H269" s="36"/>
-    </row>
-    <row r="270" spans="8:8">
-      <c r="H270" s="36"/>
-    </row>
-    <row r="271" spans="8:8">
-      <c r="H271" s="36"/>
-    </row>
-    <row r="272" spans="8:8">
-      <c r="H272" s="36"/>
-    </row>
-    <row r="273" spans="8:8">
-      <c r="H273" s="36"/>
-    </row>
-    <row r="274" spans="8:8">
-      <c r="H274" s="36"/>
-    </row>
-    <row r="275" spans="8:8">
-      <c r="H275" s="36"/>
-    </row>
-    <row r="276" spans="8:8">
-      <c r="H276" s="36"/>
-    </row>
-    <row r="277" spans="8:8">
-      <c r="H277" s="36"/>
-    </row>
-    <row r="278" spans="8:8">
-      <c r="H278" s="36"/>
+      <c r="I152" s="29"/>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="I153" s="29"/>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="I154" s="29"/>
+    </row>
+    <row r="155" spans="1:12" ht="23.4">
+      <c r="A155" s="47" t="s">
+        <v>794</v>
+      </c>
+      <c r="B155" s="47"/>
+      <c r="C155" s="47"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="47"/>
+      <c r="G155" s="47"/>
+      <c r="I155" s="29"/>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="I156" s="29"/>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="B157" t="str" cm="1">
+        <f t="array" ref="B157">_xlfn.XLOOKUP(MAX(staff[Salary]),staff[Salary],staff[First Name]&amp;" "&amp;staff[Last Name])</f>
+        <v>Minerva Ricardot</v>
+      </c>
+      <c r="C157" s="55" t="s">
+        <v>797</v>
+      </c>
+      <c r="I157" s="29"/>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="I158" s="29"/>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="54" t="s">
+        <v>796</v>
+      </c>
+      <c r="B159" t="str" cm="1">
+        <f t="array" ref="B159:B160">_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=MAX(staff[Salary]))</f>
+        <v>Minerva Ricardot</v>
+      </c>
+      <c r="C159" s="55" t="s">
+        <v>798</v>
+      </c>
+      <c r="H159" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="I159" s="56"/>
+      <c r="J159" s="56"/>
+      <c r="K159" s="56"/>
+      <c r="L159" s="56"/>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="B160" t="str">
+        <v>Mick Spraberry</v>
+      </c>
+      <c r="I160" s="29"/>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="I161" s="29"/>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="54" t="s">
+        <v>800</v>
+      </c>
+      <c r="B162" t="str" cm="1">
+        <f t="array" ref="B162">_xlfn.TEXTJOIN(", ",,_xlfn._xlws.FILTER(staff[First Name]&amp;" "&amp;staff[Last Name],staff[Salary]=MAX(staff[Salary])))</f>
+        <v>Minerva Ricardot, Mick Spraberry</v>
+      </c>
+      <c r="I162" s="29"/>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="I163" s="29"/>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="I164" s="29"/>
+    </row>
+    <row r="165" spans="1:15" ht="23.4">
+      <c r="A165" s="47" t="s">
+        <v>801</v>
+      </c>
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+      <c r="I165" s="29"/>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="54" t="s">
+        <v>803</v>
+      </c>
+      <c r="B166" s="55" t="s">
+        <v>804</v>
+      </c>
+      <c r="I166" s="29"/>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="B167" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" s="35"/>
+      <c r="F167" s="45" t="s">
+        <v>805</v>
+      </c>
+      <c r="G167" s="35" t="s">
+        <v>802</v>
+      </c>
+      <c r="H167" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I167" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="B168" s="57" t="str" cm="1">
+        <f t="array" ref="B168:D189">_xlfn._xlws.FILTER(staff[[Emp ID]:[Last Name]],MONTH(staff[Start Date])=3)</f>
+        <v>PR00746</v>
+      </c>
+      <c r="C168" s="58" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="D168" s="59" t="str">
+        <v>Iles</v>
+      </c>
+      <c r="E168" s="61"/>
+      <c r="G168" s="57" t="str" cm="1">
+        <f t="array" ref="G168:I174">_xlfn._xlws.FILTER(staff[[Emp ID]:[Last Name]],LEFT(staff[First Name],1)="H")</f>
+        <v>PR00246</v>
+      </c>
+      <c r="H168" s="58" t="str">
+        <v>Husein</v>
+      </c>
+      <c r="I168" s="66" t="str">
+        <v>Augar</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="B169" s="60" t="str">
+        <v>PR00893</v>
+      </c>
+      <c r="C169" s="61" t="str">
+        <v>Vasavi</v>
+      </c>
+      <c r="D169" s="62" t="str">
+        <v>Veeravasarapu</v>
+      </c>
+      <c r="E169" s="61"/>
+      <c r="G169" s="60" t="str">
+        <v>PR00746</v>
+      </c>
+      <c r="H169" s="61" t="str">
+        <v>Hogan</v>
+      </c>
+      <c r="I169" s="67" t="str">
+        <v>Iles</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="B170" s="60" t="str">
+        <v>SQ00022</v>
+      </c>
+      <c r="C170" s="61" t="str">
+        <v>Carlin</v>
+      </c>
+      <c r="D170" s="62" t="str">
+        <v>Demke</v>
+      </c>
+      <c r="E170" s="61"/>
+      <c r="G170" s="60" t="str">
+        <v>SQ04437</v>
+      </c>
+      <c r="H170" s="61" t="str">
+        <v>Hephzibah</v>
+      </c>
+      <c r="I170" s="67" t="str">
+        <v>Summerell</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
+      <c r="B171" s="60" t="str">
+        <v>SQ00105</v>
+      </c>
+      <c r="C171" s="61" t="str">
+        <v>Sarayu</v>
+      </c>
+      <c r="D171" s="62" t="str">
+        <v>Ragunathan</v>
+      </c>
+      <c r="E171" s="61"/>
+      <c r="G171" s="60" t="str">
+        <v>TN00214</v>
+      </c>
+      <c r="H171" s="61" t="str">
+        <v>Hemavati</v>
+      </c>
+      <c r="I171" s="67" t="str">
+        <v>Muthiah</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
+      <c r="B172" s="60" t="str">
+        <v>SQ01519</v>
+      </c>
+      <c r="C172" s="61" t="str">
+        <v>Caron</v>
+      </c>
+      <c r="D172" s="62" t="str">
+        <v>Kolakovic</v>
+      </c>
+      <c r="E172" s="61"/>
+      <c r="G172" s="60" t="str">
+        <v>TN04175</v>
+      </c>
+      <c r="H172" s="61" t="str">
+        <v>Hinda</v>
+      </c>
+      <c r="I172" s="67" t="str">
+        <v>Label</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
+      <c r="B173" s="60" t="str">
+        <v>SQ03112</v>
+      </c>
+      <c r="C173" s="61" t="str">
+        <v>Kantimoy</v>
+      </c>
+      <c r="D173" s="62" t="str">
+        <v>Pritish</v>
+      </c>
+      <c r="E173" s="61"/>
+      <c r="G173" s="60" t="str">
+        <v>TN04775</v>
+      </c>
+      <c r="H173" s="61" t="str">
+        <v>Hridaynath</v>
+      </c>
+      <c r="I173" s="67" t="str">
+        <v>Tendulkar</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
+      <c r="B174" s="60" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="C174" s="61" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="D174" s="62" t="str">
+        <v>Artis</v>
+      </c>
+      <c r="E174" s="61"/>
+      <c r="G174" s="63" t="str">
+        <v>VT01996</v>
+      </c>
+      <c r="H174" s="64" t="str">
+        <v>Hali</v>
+      </c>
+      <c r="I174" s="68" t="str">
+        <v>Behnecke</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="B175" s="60" t="str">
+        <v>SQ04612</v>
+      </c>
+      <c r="C175" s="61" t="str">
+        <v>Mick</v>
+      </c>
+      <c r="D175" s="62" t="str">
+        <v>Spraberry</v>
+      </c>
+      <c r="E175" s="61"/>
+      <c r="H175" s="71" t="s">
+        <v>807</v>
+      </c>
+      <c r="I175" s="71"/>
+      <c r="J175" s="71"/>
+      <c r="K175" s="71"/>
+      <c r="L175" s="71"/>
+      <c r="M175" s="71"/>
+      <c r="N175" s="71"/>
+      <c r="O175" s="33"/>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="B176" s="60" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C176" s="61" t="str">
+        <v>Shattesh</v>
+      </c>
+      <c r="D176" s="62" t="str">
+        <v>Utpat</v>
+      </c>
+      <c r="E176" s="61"/>
+      <c r="F176" s="69" t="s">
+        <v>806</v>
+      </c>
+      <c r="G176" t="str" cm="1">
+        <f t="array" ref="G176:N237">_xlfn._xlws.FILTER(staff[[Emp ID]:[Start Date]],(staff[Gender]="Female")*(WEEKDAY(staff[Start Date],2)=1))</f>
+        <v>PR00007</v>
+      </c>
+      <c r="H176" t="str">
+        <v>Torrance</v>
+      </c>
+      <c r="I176" s="29" t="str">
+        <v>Collier</v>
+      </c>
+      <c r="J176" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K176" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L176">
+        <v>96135.75</v>
+      </c>
+      <c r="M176" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N176" s="29">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14">
+      <c r="B177" s="60" t="str">
+        <v>TN01256</v>
+      </c>
+      <c r="C177" s="61" t="str">
+        <v>Sawini</v>
+      </c>
+      <c r="D177" s="62" t="str">
+        <v>Chandan</v>
+      </c>
+      <c r="E177" s="61"/>
+      <c r="G177" t="str">
+        <v>PR00095</v>
+      </c>
+      <c r="H177" t="str">
+        <v>Devrat</v>
+      </c>
+      <c r="I177" s="29" t="str">
+        <v>Damarsingh</v>
+      </c>
+      <c r="J177" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K177" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L177">
+        <v>70649.460000000006</v>
+      </c>
+      <c r="M177" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N177" s="29">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14">
+      <c r="B178" s="60" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C178" s="61" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D178" s="62" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="E178" s="61"/>
+      <c r="G178" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="H178" t="str">
+        <v>Van</v>
+      </c>
+      <c r="I178" s="29" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="J178" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K178" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L178">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="M178" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N178" s="29">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14">
+      <c r="B179" s="60" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="C179" s="61" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="D179" s="62" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="E179" s="61"/>
+      <c r="G179" t="str">
+        <v>PR00113</v>
+      </c>
+      <c r="H179" t="str">
+        <v>Van</v>
+      </c>
+      <c r="I179" s="29" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="J179" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K179" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L179">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="M179" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N179" s="29">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14">
+      <c r="B180" s="60" t="str">
+        <v>TN04892</v>
+      </c>
+      <c r="C180" s="61" t="str">
+        <v>Luca</v>
+      </c>
+      <c r="D180" s="62" t="str">
+        <v>Wolstenholme</v>
+      </c>
+      <c r="E180" s="61"/>
+      <c r="G180" t="str">
+        <v>PR00576</v>
+      </c>
+      <c r="H180" t="str">
+        <v>Lalitchandra</v>
+      </c>
+      <c r="I180" s="29" t="str">
+        <v>Vadali</v>
+      </c>
+      <c r="J180" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K180" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="L180">
+        <v>63705.4</v>
+      </c>
+      <c r="M180" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N180" s="29">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14">
+      <c r="B181" s="60" t="str">
+        <v>VT01762</v>
+      </c>
+      <c r="C181" s="61" t="str">
+        <v>Geena</v>
+      </c>
+      <c r="D181" s="62" t="str">
+        <v>Raghavanpillai</v>
+      </c>
+      <c r="E181" s="61"/>
+      <c r="G181" t="str">
+        <v>PR00916</v>
+      </c>
+      <c r="H181" t="str">
+        <v>Inger</v>
+      </c>
+      <c r="I181" s="29" t="str">
+        <v>Chapelhow</v>
+      </c>
+      <c r="J181" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K181" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="L181">
+        <v>84309.95</v>
+      </c>
+      <c r="M181" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N181" s="29">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14">
+      <c r="B182" s="60" t="str">
+        <v>VT01803</v>
+      </c>
+      <c r="C182" s="61" t="str">
+        <v>Freddy</v>
+      </c>
+      <c r="D182" s="62" t="str">
+        <v>Linford</v>
+      </c>
+      <c r="E182" s="61"/>
+      <c r="G182" t="str">
+        <v>PR01383</v>
+      </c>
+      <c r="H182" t="str">
+        <v>Addi</v>
+      </c>
+      <c r="I182" s="29" t="str">
+        <v>Studdeard</v>
+      </c>
+      <c r="J182" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K182" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L182">
+        <v>72502.61</v>
+      </c>
+      <c r="M182" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N182" s="29">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14">
+      <c r="B183" s="60" t="str">
+        <v>VT02417</v>
+      </c>
+      <c r="C183" s="61" t="str">
+        <v>Evangelina</v>
+      </c>
+      <c r="D183" s="62" t="str">
+        <v>Lergan</v>
+      </c>
+      <c r="E183" s="61"/>
+      <c r="G183" t="str">
+        <v>PR02016</v>
+      </c>
+      <c r="H183" t="str">
+        <v>Iris</v>
+      </c>
+      <c r="I183" s="29" t="str">
+        <v>Wagg</v>
+      </c>
+      <c r="J183" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K183" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="L183">
+        <v>58861.19</v>
+      </c>
+      <c r="M183" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N183" s="29">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14">
+      <c r="B184" s="60" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C184" s="61" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D184" s="62" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="E184" s="61"/>
+      <c r="G184" t="str">
+        <v>PR02113</v>
+      </c>
+      <c r="H184" t="str">
+        <v>Beverie</v>
+      </c>
+      <c r="I184" s="29" t="str">
+        <v>Moffet</v>
+      </c>
+      <c r="J184" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K184" t="str">
+        <v>Support</v>
+      </c>
+      <c r="L184">
+        <v>75974.990000000005</v>
+      </c>
+      <c r="M184" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N184" s="29">
+        <v>44172</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14">
+      <c r="B185" s="60" t="str">
+        <v>VT03421</v>
+      </c>
+      <c r="C185" s="61" t="str">
+        <v>Alic</v>
+      </c>
+      <c r="D185" s="62" t="str">
+        <v>Bagg</v>
+      </c>
+      <c r="E185" s="61"/>
+      <c r="G185" t="str">
+        <v>PR02275</v>
+      </c>
+      <c r="H185" t="str">
+        <v>Louise</v>
+      </c>
+      <c r="I185" s="29" t="str">
+        <v>Lamming</v>
+      </c>
+      <c r="J185" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K185" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="L185">
+        <v>41934.71</v>
+      </c>
+      <c r="M185" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N185" s="29">
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14">
+      <c r="B186" s="60" t="str">
+        <v>VT03993</v>
+      </c>
+      <c r="C186" s="61" t="str">
+        <v>Dulce</v>
+      </c>
+      <c r="D186" s="62" t="str">
+        <v>Colbeck</v>
+      </c>
+      <c r="E186" s="61"/>
+      <c r="G186" t="str">
+        <v>PR02436</v>
+      </c>
+      <c r="H186" t="str">
+        <v>Marmaduke</v>
+      </c>
+      <c r="I186" s="29" t="str">
+        <v>Worssam</v>
+      </c>
+      <c r="J186" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K186" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="L186">
+        <v>78378.2</v>
+      </c>
+      <c r="M186" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N186" s="29">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14">
+      <c r="B187" s="60" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C187" s="61" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D187" s="62" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="E187" s="61"/>
+      <c r="G187" t="str">
+        <v>PR02603</v>
+      </c>
+      <c r="H187" t="str">
+        <v>Dinanath</v>
+      </c>
+      <c r="I187" s="29" t="str">
+        <v>Simhambhatla</v>
+      </c>
+      <c r="J187" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K187" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="L187">
+        <v>61994.76</v>
+      </c>
+      <c r="M187" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N187" s="29">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14">
+      <c r="B188" s="60" t="str">
+        <v>VT04028</v>
+      </c>
+      <c r="C188" s="61" t="str">
+        <v>Michale</v>
+      </c>
+      <c r="D188" s="62" t="str">
+        <v>Rolf</v>
+      </c>
+      <c r="E188" s="61"/>
+      <c r="G188" t="str">
+        <v>PR03158</v>
+      </c>
+      <c r="H188" t="str">
+        <v>Danica</v>
+      </c>
+      <c r="I188" s="29" t="str">
+        <v>Nayshe</v>
+      </c>
+      <c r="J188" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K188" t="str">
+        <v>Services</v>
+      </c>
+      <c r="L188">
+        <v>89690.38</v>
+      </c>
+      <c r="M188" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N188" s="29">
+        <v>43206</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14">
+      <c r="B189" s="63" t="str">
+        <v>VT04415</v>
+      </c>
+      <c r="C189" s="64" t="str">
+        <v>Malory</v>
+      </c>
+      <c r="D189" s="65" t="str">
+        <v>Biles</v>
+      </c>
+      <c r="E189" s="61"/>
+      <c r="G189" t="str">
+        <v>PR04380</v>
+      </c>
+      <c r="H189" t="str">
+        <v>Van</v>
+      </c>
+      <c r="I189" s="29" t="str">
+        <v>Tuxwell</v>
+      </c>
+      <c r="J189" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K189" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L189">
+        <v>80695.740000000005</v>
+      </c>
+      <c r="M189" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N189" s="29">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14">
+      <c r="G190" t="str">
+        <v>PR04446</v>
+      </c>
+      <c r="H190" t="str">
+        <v>Sameer</v>
+      </c>
+      <c r="I190" s="29" t="str">
+        <v>Shashank</v>
+      </c>
+      <c r="J190" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K190" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="L190">
+        <v>92336.08</v>
+      </c>
+      <c r="M190" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N190" s="29">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14">
+      <c r="G191" t="str">
+        <v>PR04473</v>
+      </c>
+      <c r="H191" t="str">
+        <v>Wyn</v>
+      </c>
+      <c r="I191" s="29" t="str">
+        <v>Treadger</v>
+      </c>
+      <c r="J191" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K191" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L191">
+        <v>69192.850000000006</v>
+      </c>
+      <c r="M191" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N191" s="29">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14">
+      <c r="G192" t="str">
+        <v>PR04686</v>
+      </c>
+      <c r="H192" t="str">
+        <v>Oona</v>
+      </c>
+      <c r="I192" s="29" t="str">
+        <v>Donan</v>
+      </c>
+      <c r="J192" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K192" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L192">
+        <v>98000</v>
+      </c>
+      <c r="M192" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N192" s="29">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="193" spans="7:14">
+      <c r="G193" t="str">
+        <v>SQ00105</v>
+      </c>
+      <c r="H193" t="str">
+        <v>Sarayu</v>
+      </c>
+      <c r="I193" s="29" t="str">
+        <v>Ragunathan</v>
+      </c>
+      <c r="J193" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K193" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L193">
+        <v>86010.54</v>
+      </c>
+      <c r="M193" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N193" s="29">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="194" spans="7:14">
+      <c r="G194" t="str">
+        <v>SQ00841</v>
+      </c>
+      <c r="H194" t="str">
+        <v>Bhuvan</v>
+      </c>
+      <c r="I194" s="29" t="str">
+        <v>Pals</v>
+      </c>
+      <c r="J194" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K194" t="str">
+        <v>Services</v>
+      </c>
+      <c r="L194">
+        <v>89690.38</v>
+      </c>
+      <c r="M194" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N194" s="29">
+        <v>43213</v>
+      </c>
+    </row>
+    <row r="195" spans="7:14">
+      <c r="G195" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="H195" t="str">
+        <v>Duran</v>
+      </c>
+      <c r="I195" s="29" t="str">
+        <v>Appala</v>
+      </c>
+      <c r="J195" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K195" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L195">
+        <v>38438.239999999998</v>
+      </c>
+      <c r="M195" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N195" s="29">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="196" spans="7:14">
+      <c r="G196" t="str">
+        <v>SQ00914</v>
+      </c>
+      <c r="H196" t="str">
+        <v>Karuna</v>
+      </c>
+      <c r="I196" s="29" t="str">
+        <v>Pashupathy</v>
+      </c>
+      <c r="J196" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K196" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L196">
+        <v>38438.239999999998</v>
+      </c>
+      <c r="M196" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N196" s="29">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="197" spans="7:14">
+      <c r="G197" t="str">
+        <v>SQ01402</v>
+      </c>
+      <c r="H197" t="str">
+        <v>Sahaj</v>
+      </c>
+      <c r="I197" s="29" t="str">
+        <v>Jonnalagadda</v>
+      </c>
+      <c r="J197" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K197" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="L197">
+        <v>44403.77</v>
+      </c>
+      <c r="M197" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N197" s="29">
+        <v>43416</v>
+      </c>
+    </row>
+    <row r="198" spans="7:14">
+      <c r="G198" t="str">
+        <v>SQ01730</v>
+      </c>
+      <c r="H198" t="str">
+        <v>Austine</v>
+      </c>
+      <c r="I198" s="29" t="str">
+        <v>Littlewood</v>
+      </c>
+      <c r="J198" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K198" t="str">
+        <v>Services</v>
+      </c>
+      <c r="L198">
+        <v>32269.91</v>
+      </c>
+      <c r="M198" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N198" s="29">
+        <v>43346</v>
+      </c>
+    </row>
+    <row r="199" spans="7:14">
+      <c r="G199" t="str">
+        <v>SQ02174</v>
+      </c>
+      <c r="H199" t="str">
+        <v>Sidoney</v>
+      </c>
+      <c r="I199" s="29" t="str">
+        <v>Yitzhok</v>
+      </c>
+      <c r="J199" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K199" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="L199">
+        <v>118442.54</v>
+      </c>
+      <c r="M199" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="N199" s="29">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="200" spans="7:14">
+      <c r="G200" t="str">
+        <v>SQ03321</v>
+      </c>
+      <c r="H200" t="str">
+        <v>Gradey</v>
+      </c>
+      <c r="I200" s="29" t="str">
+        <v>Litton</v>
+      </c>
+      <c r="J200" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K200" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="L200">
+        <v>68887.839999999997</v>
+      </c>
+      <c r="M200" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N200" s="29">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="201" spans="7:14">
+      <c r="G201" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="H201" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="I201" s="29" t="str">
+        <v>McMurty</v>
+      </c>
+      <c r="J201" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K201" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L201">
+        <v>66865.490000000005</v>
+      </c>
+      <c r="M201" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N201" s="29">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="202" spans="7:14">
+      <c r="G202" t="str">
+        <v>SQ03350</v>
+      </c>
+      <c r="H202" t="str">
+        <v>Felice</v>
+      </c>
+      <c r="I202" s="29" t="str">
+        <v>McMurty</v>
+      </c>
+      <c r="J202" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K202" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L202">
+        <v>66865.490000000005</v>
+      </c>
+      <c r="M202" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N202" s="29">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="203" spans="7:14">
+      <c r="G203" t="str">
+        <v>SQ03491</v>
+      </c>
+      <c r="H203" t="str">
+        <v>Freda</v>
+      </c>
+      <c r="I203" s="29" t="str">
+        <v>Legan</v>
+      </c>
+      <c r="J203" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K203" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="L203">
+        <v>102129.37</v>
+      </c>
+      <c r="M203" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="N203" s="29">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="204" spans="7:14">
+      <c r="G204" t="str">
+        <v>SQ03546</v>
+      </c>
+      <c r="H204" t="str">
+        <v>Amlankusum</v>
+      </c>
+      <c r="I204" s="29" t="str">
+        <v>Rajabhushan</v>
+      </c>
+      <c r="J204" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K204" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="L204">
+        <v>75733.740000000005</v>
+      </c>
+      <c r="M204" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N204" s="29">
+        <v>44382</v>
+      </c>
+    </row>
+    <row r="205" spans="7:14">
+      <c r="G205" t="str">
+        <v>SQ03625</v>
+      </c>
+      <c r="H205" t="str">
+        <v>Fidela</v>
+      </c>
+      <c r="I205" s="29" t="str">
+        <v>Artis</v>
+      </c>
+      <c r="J205" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K205" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="L205">
+        <v>78020.39</v>
+      </c>
+      <c r="M205" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N205" s="29">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="206" spans="7:14">
+      <c r="G206" t="str">
+        <v>SQ03626</v>
+      </c>
+      <c r="H206" t="str">
+        <v>Krishnakanta</v>
+      </c>
+      <c r="I206" s="29" t="str">
+        <v>Vellanki</v>
+      </c>
+      <c r="J206" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K206" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L206">
+        <v>95677.9</v>
+      </c>
+      <c r="M206" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N206" s="29">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="207" spans="7:14">
+      <c r="G207" t="str">
+        <v>SQ04613</v>
+      </c>
+      <c r="H207" t="str">
+        <v>Sarojini</v>
+      </c>
+      <c r="I207" s="29" t="str">
+        <v>Naueshwara</v>
+      </c>
+      <c r="J207" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K207" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="L207">
+        <v>85264.38</v>
+      </c>
+      <c r="M207" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N207" s="29">
+        <v>43220</v>
+      </c>
+    </row>
+    <row r="208" spans="7:14">
+      <c r="G208" t="str">
+        <v>SQ04960</v>
+      </c>
+      <c r="H208" t="str">
+        <v>Shubhra</v>
+      </c>
+      <c r="I208" s="29" t="str">
+        <v>Potla</v>
+      </c>
+      <c r="J208" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K208" t="str">
+        <v>Support</v>
+      </c>
+      <c r="L208">
+        <v>71924.850000000006</v>
+      </c>
+      <c r="M208" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N208" s="29">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="209" spans="7:14">
+      <c r="G209" t="str">
+        <v>TN00083</v>
+      </c>
+      <c r="H209" t="str">
+        <v>Chandana</v>
+      </c>
+      <c r="I209" s="29" t="str">
+        <v>Sannidhi</v>
+      </c>
+      <c r="J209" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K209" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="L209">
+        <v>61688.77</v>
+      </c>
+      <c r="M209" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N209" s="29">
+        <v>43346</v>
+      </c>
+    </row>
+    <row r="210" spans="7:14">
+      <c r="G210" t="str">
+        <v>TN00182</v>
+      </c>
+      <c r="H210" t="str">
+        <v>Camilla</v>
+      </c>
+      <c r="I210" s="29" t="str">
+        <v>Castle</v>
+      </c>
+      <c r="J210" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K210" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L210">
+        <v>75475.929999999993</v>
+      </c>
+      <c r="M210" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N210" s="29">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="211" spans="7:14">
+      <c r="G211" t="str">
+        <v>TN00890</v>
+      </c>
+      <c r="H211" t="str">
+        <v>Mayur</v>
+      </c>
+      <c r="I211" s="29" t="str">
+        <v>Kousika</v>
+      </c>
+      <c r="J211" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K211" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L211">
+        <v>71570.990000000005</v>
+      </c>
+      <c r="M211" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N211" s="29">
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="212" spans="7:14">
+      <c r="G212" t="str">
+        <v>TN01281</v>
+      </c>
+      <c r="H212" t="str">
+        <v>Cletus</v>
+      </c>
+      <c r="I212" s="29" t="str">
+        <v>McGarahan</v>
+      </c>
+      <c r="J212" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K212" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="L212">
+        <v>114425.19</v>
+      </c>
+      <c r="M212" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="N212" s="29">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="213" spans="7:14">
+      <c r="G213" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="H213" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="I213" s="29" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="J213" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K213" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L213">
+        <v>68795.48</v>
+      </c>
+      <c r="M213" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N213" s="29">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="214" spans="7:14">
+      <c r="G214" t="str">
+        <v>TN01601</v>
+      </c>
+      <c r="H214" t="str">
+        <v>Melva</v>
+      </c>
+      <c r="I214" s="29" t="str">
+        <v>Jickells</v>
+      </c>
+      <c r="J214" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K214" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L214">
+        <v>68795.48</v>
+      </c>
+      <c r="M214" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N214" s="29">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="215" spans="7:14">
+      <c r="G215" t="str">
+        <v>TN02749</v>
+      </c>
+      <c r="H215" t="str">
+        <v>Parasuramudu</v>
+      </c>
+      <c r="I215" s="29" t="str">
+        <v>Jamakayala</v>
+      </c>
+      <c r="J215" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K215" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L215">
+        <v>57002.02</v>
+      </c>
+      <c r="M215" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N215" s="29">
+        <v>43192</v>
+      </c>
+    </row>
+    <row r="216" spans="7:14">
+      <c r="G216" t="str">
+        <v>TN02883</v>
+      </c>
+      <c r="H216" t="str">
+        <v>John</v>
+      </c>
+      <c r="I216" s="29" t="str">
+        <v>Joseph</v>
+      </c>
+      <c r="J216" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K216" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="L216">
+        <v>84762.76</v>
+      </c>
+      <c r="M216" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N216" s="29">
+        <v>43332</v>
+      </c>
+    </row>
+    <row r="217" spans="7:14">
+      <c r="G217" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="H217" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="I217" s="29" t="str">
+        <v>Wolverson</v>
+      </c>
+      <c r="J217" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K217" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="L217">
+        <v>99683.67</v>
+      </c>
+      <c r="M217" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N217" s="29">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="218" spans="7:14">
+      <c r="G218" t="str">
+        <v>TN03575</v>
+      </c>
+      <c r="H218" t="str">
+        <v>Janina</v>
+      </c>
+      <c r="I218" s="29" t="str">
+        <v>Wolverson</v>
+      </c>
+      <c r="J218" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K218" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="L218">
+        <v>99683.67</v>
+      </c>
+      <c r="M218" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N218" s="29">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="219" spans="7:14">
+      <c r="G219" t="str">
+        <v>TN04067</v>
+      </c>
+      <c r="H219" t="str">
+        <v>Lea</v>
+      </c>
+      <c r="I219" s="29" t="str">
+        <v>Chaplin</v>
+      </c>
+      <c r="J219" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K219" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="L219">
+        <v>73488.679999999993</v>
+      </c>
+      <c r="M219" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N219" s="29">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="220" spans="7:14">
+      <c r="G220" t="str">
+        <v>TN04175</v>
+      </c>
+      <c r="H220" t="str">
+        <v>Hinda</v>
+      </c>
+      <c r="I220" s="29" t="str">
+        <v>Label</v>
+      </c>
+      <c r="J220" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K220" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="L220">
+        <v>92704.48</v>
+      </c>
+      <c r="M220" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N220" s="29">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="221" spans="7:14">
+      <c r="G221" t="str">
+        <v>TN04246</v>
+      </c>
+      <c r="H221" t="str">
+        <v>Shaylyn</v>
+      </c>
+      <c r="I221" s="29" t="str">
+        <v>Ransbury</v>
+      </c>
+      <c r="J221" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K221" t="str">
+        <v>Support</v>
+      </c>
+      <c r="L221">
+        <v>100371.31</v>
+      </c>
+      <c r="M221" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="N221" s="29">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="222" spans="7:14">
+      <c r="G222" t="str">
+        <v>TN04740</v>
+      </c>
+      <c r="H222" t="str">
+        <v>Tristam</v>
+      </c>
+      <c r="I222" s="29" t="str">
+        <v>Cuming</v>
+      </c>
+      <c r="J222" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K222" t="str">
+        <v>Support</v>
+      </c>
+      <c r="L222">
+        <v>104038.9</v>
+      </c>
+      <c r="M222" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="N222" s="29">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="223" spans="7:14">
+      <c r="G223" t="str">
+        <v>VT00578</v>
+      </c>
+      <c r="H223" t="str">
+        <v>Magnum</v>
+      </c>
+      <c r="I223" s="29" t="str">
+        <v>Locksley</v>
+      </c>
+      <c r="J223" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K223" t="str">
+        <v>Services</v>
+      </c>
+      <c r="L223">
+        <v>42314.39</v>
+      </c>
+      <c r="M223" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N223" s="29">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="224" spans="7:14">
+      <c r="G224" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="H224" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="I224" s="29" t="str">
+        <v>Carrett</v>
+      </c>
+      <c r="J224" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K224" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="L224">
+        <v>84598.88</v>
+      </c>
+      <c r="M224" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N224" s="29">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="G225" t="str">
+        <v>VT00596</v>
+      </c>
+      <c r="H225" t="str">
+        <v>Letisha</v>
+      </c>
+      <c r="I225" s="29" t="str">
+        <v>Carrett</v>
+      </c>
+      <c r="J225" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K225" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="L225">
+        <v>84598.88</v>
+      </c>
+      <c r="M225" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N225" s="29">
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="G226" t="str">
+        <v>VT00740</v>
+      </c>
+      <c r="H226" t="str">
+        <v>Chitrasen</v>
+      </c>
+      <c r="I226" s="29" t="str">
+        <v>Laul</v>
+      </c>
+      <c r="J226" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K226" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="L226">
+        <v>46751.7</v>
+      </c>
+      <c r="M226" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N226" s="29">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="G227" t="str">
+        <v>VT01249</v>
+      </c>
+      <c r="H227" t="str">
+        <v>Brendan</v>
+      </c>
+      <c r="I227" s="29" t="str">
+        <v>Edgeller</v>
+      </c>
+      <c r="J227" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K227" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="L227">
+        <v>31042.51</v>
+      </c>
+      <c r="M227" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N227" s="29">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="G228" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="H228" t="str">
+        <v>Dhruv</v>
+      </c>
+      <c r="I228" s="29" t="str">
+        <v>Manjunath</v>
+      </c>
+      <c r="J228" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K228" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="L228">
+        <v>76303.820000000007</v>
+      </c>
+      <c r="M228" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N228" s="29">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="G229" t="str">
+        <v>VT01610</v>
+      </c>
+      <c r="H229" t="str">
+        <v>Kunja</v>
+      </c>
+      <c r="I229" s="29" t="str">
+        <v>Prashanta</v>
+      </c>
+      <c r="J229" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K229" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="L229">
+        <v>76303.820000000007</v>
+      </c>
+      <c r="M229" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N229" s="29">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="G230" t="str">
+        <v>VT01803</v>
+      </c>
+      <c r="H230" t="str">
+        <v>Freddy</v>
+      </c>
+      <c r="I230" s="29" t="str">
+        <v>Linford</v>
+      </c>
+      <c r="J230" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K230" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L230">
+        <v>93128.34</v>
+      </c>
+      <c r="M230" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N230" s="29">
+        <v>43164</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="G231" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="H231" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="I231" s="29" t="str">
+        <v>Jewis</v>
+      </c>
+      <c r="J231" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K231" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="L231">
+        <v>71823.56</v>
+      </c>
+      <c r="M231" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N231" s="29">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="G232" t="str">
+        <v>VT02374</v>
+      </c>
+      <c r="H232" t="str">
+        <v>Delphine</v>
+      </c>
+      <c r="I232" s="29" t="str">
+        <v>Jewis</v>
+      </c>
+      <c r="J232" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K232" t="str">
+        <v>Accounting</v>
+      </c>
+      <c r="L232">
+        <v>71823.56</v>
+      </c>
+      <c r="M232" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N232" s="29">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="G233" t="str">
+        <v>VT02532</v>
+      </c>
+      <c r="H233" t="str">
+        <v>Adey</v>
+      </c>
+      <c r="I233" s="29" t="str">
+        <v>Ryal</v>
+      </c>
+      <c r="J233" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K233" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="L233">
+        <v>32496.880000000001</v>
+      </c>
+      <c r="M233" t="str">
+        <v>Under 50k</v>
+      </c>
+      <c r="N233" s="29">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="G234" t="str">
+        <v>VT03701</v>
+      </c>
+      <c r="H234" t="str">
+        <v>Narois</v>
+      </c>
+      <c r="I234" s="29" t="str">
+        <v>Motiwala</v>
+      </c>
+      <c r="J234" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K234" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L234">
+        <v>89829.33</v>
+      </c>
+      <c r="M234" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N234" s="29">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="G235" t="str">
+        <v>VT03988</v>
+      </c>
+      <c r="H235" t="str">
+        <v>Venkat</v>
+      </c>
+      <c r="I235" s="29" t="str">
+        <v>Kodi</v>
+      </c>
+      <c r="J235" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K235" t="str">
+        <v>Support</v>
+      </c>
+      <c r="L235">
+        <v>58935.92</v>
+      </c>
+      <c r="M235" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N235" s="29">
+        <v>43717</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="G236" t="str">
+        <v>VT04415</v>
+      </c>
+      <c r="H236" t="str">
+        <v>Malory</v>
+      </c>
+      <c r="I236" s="29" t="str">
+        <v>Biles</v>
+      </c>
+      <c r="J236" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K236" t="str">
+        <v>Training</v>
+      </c>
+      <c r="L236">
+        <v>58744.17</v>
+      </c>
+      <c r="M236" t="str">
+        <v>50k to 100k</v>
+      </c>
+      <c r="N236" s="29">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="G237" t="str">
+        <v>VT04552</v>
+      </c>
+      <c r="H237" t="str">
+        <v>Theresita</v>
+      </c>
+      <c r="I237" s="29" t="str">
+        <v>Chasmer</v>
+      </c>
+      <c r="J237" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K237" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="L237">
+        <v>106665.67</v>
+      </c>
+      <c r="M237" t="str">
+        <v>Above 100k</v>
+      </c>
+      <c r="N237" s="29">
+        <v>43311</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="I238" s="29"/>
+    </row>
+    <row r="239" spans="1:14" ht="23.4">
+      <c r="A239" s="47" t="s">
+        <v>756</v>
+      </c>
+      <c r="B239" s="47"/>
+      <c r="C239" s="47"/>
+      <c r="D239" s="47"/>
+      <c r="E239" s="47"/>
+      <c r="F239" s="47"/>
+      <c r="G239" s="47"/>
+      <c r="H239" s="47"/>
+      <c r="I239" s="70"/>
+      <c r="J239" s="70"/>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="I240" s="29"/>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241" s="54" t="s">
+        <v>808</v>
+      </c>
+      <c r="B241">
+        <f>COUNTA(staff[Emp ID])</f>
+        <v>260</v>
+      </c>
+      <c r="C241" s="76">
+        <f>AVERAGE(staff[Salary])</f>
+        <v>73861.325230769246</v>
+      </c>
+      <c r="D241" s="76"/>
+      <c r="E241" s="76"/>
+      <c r="F241" s="76">
+        <f>MAX(staff[Salary])</f>
+        <v>120000</v>
+      </c>
+      <c r="G241" s="76"/>
+      <c r="I241" s="29"/>
+    </row>
+    <row r="242" spans="1:11" ht="15" thickBot="1">
+      <c r="I242" s="29"/>
+    </row>
+    <row r="243" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A243" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="74" t="s">
+        <v>809</v>
+      </c>
+      <c r="C243" s="74" t="s">
+        <v>810</v>
+      </c>
+      <c r="D243" s="75" t="s">
+        <v>811</v>
+      </c>
+      <c r="E243" s="75"/>
+      <c r="F243" s="74" t="s">
+        <v>812</v>
+      </c>
+      <c r="G243" s="74" t="s">
+        <v>813</v>
+      </c>
+      <c r="H243" s="74" t="s">
+        <v>816</v>
+      </c>
+      <c r="I243" s="77"/>
+      <c r="J243" s="35" t="s">
+        <v>815</v>
+      </c>
+      <c r="K243" s="35" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A244" s="72" t="str" cm="1">
+        <f t="array" ref="A244:A255">_xlfn._xlws.SORT(_xlfn.UNIQUE(staff[Department]))</f>
+        <v>Accounting</v>
+      </c>
+      <c r="B244" s="78" cm="1">
+        <f t="array" ref="B244:B255">COUNTIFS(staff[Department],_xlfn.ANCHORARRAY(A244))</f>
+        <v>26</v>
+      </c>
+      <c r="C244" s="79" cm="1">
+        <f t="array" ref="C244:C255">AVERAGEIFS(staff[Salary],staff[Department],_xlfn.ANCHORARRAY(A244))</f>
+        <v>69806.945769230777</v>
+      </c>
+      <c r="D244" s="79" cm="1">
+        <f t="array" ref="D244:D255">_xlfn.ANCHORARRAY(C244)-C241</f>
+        <v>-4054.3794615384686</v>
+      </c>
+      <c r="E244" s="80" cm="1">
+        <f t="array" ref="E244:E255">_xlfn.ANCHORARRAY(C244)-C241</f>
+        <v>-4054.3794615384686</v>
+      </c>
+      <c r="F244" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A244)</f>
+        <v>119022.49</v>
+      </c>
+      <c r="G244" s="79" cm="1">
+        <f t="array" ref="G244">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A244))</f>
+        <v>69025.614999999991</v>
+      </c>
+      <c r="H244" s="81" t="str">
+        <f>J244/GCD(J244,K244)&amp;":"&amp;K244/GCD(J244,K244)</f>
+        <v>3:5</v>
+      </c>
+      <c r="I244" s="77"/>
+      <c r="J244" cm="1">
+        <f t="array" ref="J244:J255">COUNTIFS(staff[Department],_xlfn.ANCHORARRAY(A244),staff[Gender],"Female")</f>
+        <v>9</v>
+      </c>
+      <c r="K244" cm="1">
+        <f t="array" ref="K244:K255">COUNTIFS(staff[Department],_xlfn.ANCHORARRAY(A244),staff[Gender],"Male")</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A245" s="72" t="str">
+        <v>Business Development</v>
+      </c>
+      <c r="B245" s="82">
+        <v>26</v>
+      </c>
+      <c r="C245" s="83">
+        <v>79781.805769230778</v>
+      </c>
+      <c r="D245" s="83">
+        <v>5920.480538461532</v>
+      </c>
+      <c r="E245" s="84">
+        <v>5920.480538461532</v>
+      </c>
+      <c r="F245" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A245)</f>
+        <v>110042.37</v>
+      </c>
+      <c r="G245" s="79" cm="1">
+        <f t="array" ref="G245">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A245))</f>
+        <v>80695.740000000005</v>
+      </c>
+      <c r="H245" s="81" t="str">
+        <f t="shared" ref="H245:H255" si="0">J245/GCD(J245,K245)&amp;":"&amp;K245/GCD(J245,K245)</f>
+        <v>11:15</v>
+      </c>
+      <c r="I245" s="77"/>
+      <c r="J245">
+        <v>11</v>
+      </c>
+      <c r="K245">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A246" s="72" t="str">
+        <v>Engineering</v>
+      </c>
+      <c r="B246" s="82">
+        <v>26</v>
+      </c>
+      <c r="C246" s="83">
+        <v>81976.441923076913</v>
+      </c>
+      <c r="D246" s="83">
+        <v>8115.1166923076671</v>
+      </c>
+      <c r="E246" s="84">
+        <v>8115.1166923076671</v>
+      </c>
+      <c r="F246" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A246)</f>
+        <v>120000</v>
+      </c>
+      <c r="G246" s="79" cm="1">
+        <f t="array" ref="G246">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A246))</f>
+        <v>85332.304999999993</v>
+      </c>
+      <c r="H246" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>5:8</v>
+      </c>
+      <c r="I246" s="77"/>
+      <c r="J246">
+        <v>10</v>
+      </c>
+      <c r="K246">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A247" s="72" t="str">
+        <v>Human Resources</v>
+      </c>
+      <c r="B247" s="82">
+        <v>22</v>
+      </c>
+      <c r="C247" s="83">
+        <v>73109.377727272746</v>
+      </c>
+      <c r="D247" s="83">
+        <v>-751.94750349649985</v>
+      </c>
+      <c r="E247" s="84">
+        <v>-751.94750349649985</v>
+      </c>
+      <c r="F247" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A247)</f>
+        <v>103494.94</v>
+      </c>
+      <c r="G247" s="79" cm="1">
+        <f t="array" ref="G247">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A247))</f>
+        <v>73182.794999999998</v>
+      </c>
+      <c r="H247" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>7:12</v>
+      </c>
+      <c r="I247" s="77"/>
+      <c r="J247">
+        <v>7</v>
+      </c>
+      <c r="K247">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A248" s="72" t="str">
+        <v>Legal</v>
+      </c>
+      <c r="B248" s="82">
+        <v>21</v>
+      </c>
+      <c r="C248" s="83">
+        <v>67242.51761904762</v>
+      </c>
+      <c r="D248" s="83">
+        <v>-6618.807611721626</v>
+      </c>
+      <c r="E248" s="84">
+        <v>-6618.807611721626</v>
+      </c>
+      <c r="F248" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A248)</f>
+        <v>113747.56</v>
+      </c>
+      <c r="G248" s="79" cm="1">
+        <f t="array" ref="G248">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A248))</f>
+        <v>66572.58</v>
+      </c>
+      <c r="H248" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>7:13</v>
+      </c>
+      <c r="I248" s="77"/>
+      <c r="J248">
+        <v>7</v>
+      </c>
+      <c r="K248">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A249" s="72" t="str">
+        <v>Marketing</v>
+      </c>
+      <c r="B249" s="82">
+        <v>12</v>
+      </c>
+      <c r="C249" s="83">
+        <v>64441.299999999996</v>
+      </c>
+      <c r="D249" s="83">
+        <v>-9420.0252307692499</v>
+      </c>
+      <c r="E249" s="84">
+        <v>-9420.0252307692499</v>
+      </c>
+      <c r="F249" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A249)</f>
+        <v>104903.79</v>
+      </c>
+      <c r="G249" s="79" cm="1">
+        <f t="array" ref="G249">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A249))</f>
+        <v>66961.489999999991</v>
+      </c>
+      <c r="H249" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>5:7</v>
+      </c>
+      <c r="I249" s="77"/>
+      <c r="J249">
+        <v>5</v>
+      </c>
+      <c r="K249">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A250" s="72" t="str">
+        <v>Product Management</v>
+      </c>
+      <c r="B250" s="82">
+        <v>29</v>
+      </c>
+      <c r="C250" s="83">
+        <v>75179.064482758593</v>
+      </c>
+      <c r="D250" s="83">
+        <v>1317.7392519893474</v>
+      </c>
+      <c r="E250" s="84">
+        <v>1317.7392519893474</v>
+      </c>
+      <c r="F250" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A250)</f>
+        <v>115191.38</v>
+      </c>
+      <c r="G250" s="79" cm="1">
+        <f t="array" ref="G250">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A250))</f>
+        <v>72502.61</v>
+      </c>
+      <c r="H250" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>17:12</v>
+      </c>
+      <c r="I250" s="77"/>
+      <c r="J250">
+        <v>17</v>
+      </c>
+      <c r="K250">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A251" s="72" t="str">
+        <v>Research and Development</v>
+      </c>
+      <c r="B251" s="82">
+        <v>18</v>
+      </c>
+      <c r="C251" s="83">
+        <v>66910.765555555554</v>
+      </c>
+      <c r="D251" s="83">
+        <v>-6950.5596752136917</v>
+      </c>
+      <c r="E251" s="84">
+        <v>-6950.5596752136917</v>
+      </c>
+      <c r="F251" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A251)</f>
+        <v>99683.67</v>
+      </c>
+      <c r="G251" s="79" cm="1">
+        <f t="array" ref="G251">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A251))</f>
+        <v>65995.375</v>
+      </c>
+      <c r="H251" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>11:7</v>
+      </c>
+      <c r="I251" s="77"/>
+      <c r="J251">
+        <v>11</v>
+      </c>
+      <c r="K251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A252" s="72" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="B252" s="82">
+        <v>18</v>
+      </c>
+      <c r="C252" s="83">
+        <v>71897.095555555556</v>
+      </c>
+      <c r="D252" s="83">
+        <v>-1964.2296752136899</v>
+      </c>
+      <c r="E252" s="84">
+        <v>-1964.2296752136899</v>
+      </c>
+      <c r="F252" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A252)</f>
+        <v>102129.37</v>
+      </c>
+      <c r="G252" s="79" cm="1">
+        <f t="array" ref="G252">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A252))</f>
+        <v>79396.654999999999</v>
+      </c>
+      <c r="H252" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>5:4</v>
+      </c>
+      <c r="I252" s="77"/>
+      <c r="J252">
+        <v>10</v>
+      </c>
+      <c r="K252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A253" s="72" t="str">
+        <v>Services</v>
+      </c>
+      <c r="B253" s="82">
+        <v>21</v>
+      </c>
+      <c r="C253" s="83">
+        <v>74673.974761904756</v>
+      </c>
+      <c r="D253" s="83">
+        <v>812.64953113551019</v>
+      </c>
+      <c r="E253" s="84">
+        <v>812.64953113551019</v>
+      </c>
+      <c r="F253" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A253)</f>
+        <v>120000</v>
+      </c>
+      <c r="G253" s="79" cm="1">
+        <f t="array" ref="G253">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A253))</f>
+        <v>77096.05</v>
+      </c>
+      <c r="H253" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>13:8</v>
+      </c>
+      <c r="I253" s="77"/>
+      <c r="J253">
+        <v>13</v>
+      </c>
+      <c r="K253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A254" s="72" t="str">
+        <v>Support</v>
+      </c>
+      <c r="B254" s="82">
+        <v>17</v>
+      </c>
+      <c r="C254" s="83">
+        <v>66432.455882352937</v>
+      </c>
+      <c r="D254" s="83">
+        <v>-7428.8693484163086</v>
+      </c>
+      <c r="E254" s="84">
+        <v>-7428.8693484163086</v>
+      </c>
+      <c r="F254" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A254)</f>
+        <v>104802.63</v>
+      </c>
+      <c r="G254" s="79" cm="1">
+        <f t="array" ref="G254">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A254))</f>
+        <v>61214.26</v>
+      </c>
+      <c r="H254" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>1:1</v>
+      </c>
+      <c r="I254" s="77"/>
+      <c r="J254">
+        <v>8</v>
+      </c>
+      <c r="K254">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="15.6" thickTop="1" thickBot="1">
+      <c r="A255" s="73" t="str">
+        <v>Training</v>
+      </c>
+      <c r="B255" s="82">
+        <v>24</v>
+      </c>
+      <c r="C255" s="83">
+        <v>83883.965000000011</v>
+      </c>
+      <c r="D255" s="83">
+        <v>10022.639769230766</v>
+      </c>
+      <c r="E255" s="84">
+        <v>10022.639769230766</v>
+      </c>
+      <c r="F255" s="79">
+        <f>_xlfn.MAXIFS(staff[Salary],staff[Department],A255)</f>
+        <v>116767.63</v>
+      </c>
+      <c r="G255" s="79" cm="1">
+        <f t="array" ref="G255">MEDIAN(_xlfn._xlws.FILTER(staff[Salary],staff[Department]=A255))</f>
+        <v>89569.44</v>
+      </c>
+      <c r="H255" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>17:6</v>
+      </c>
+      <c r="I255" s="77"/>
+      <c r="J255">
+        <v>17</v>
+      </c>
+      <c r="K255">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="15" thickTop="1">
+      <c r="G256" s="76"/>
+      <c r="I256" s="77"/>
+    </row>
+    <row r="257" spans="9:9">
+      <c r="I257" s="77"/>
+    </row>
+    <row r="258" spans="9:9">
+      <c r="I258" s="77"/>
+    </row>
+    <row r="259" spans="9:9">
+      <c r="I259" s="77"/>
+    </row>
+    <row r="260" spans="9:9">
+      <c r="I260" s="77"/>
+    </row>
+    <row r="261" spans="9:9">
+      <c r="I261" s="77"/>
+    </row>
+    <row r="262" spans="9:9">
+      <c r="I262" s="77"/>
+    </row>
+    <row r="263" spans="9:9">
+      <c r="I263" s="77"/>
+    </row>
+    <row r="264" spans="9:9">
+      <c r="I264" s="77"/>
+    </row>
+    <row r="265" spans="9:9">
+      <c r="I265" s="77"/>
+    </row>
+    <row r="266" spans="9:9">
+      <c r="I266" s="77"/>
+    </row>
+    <row r="267" spans="9:9">
+      <c r="I267" s="29"/>
+    </row>
+    <row r="268" spans="9:9">
+      <c r="I268" s="29"/>
+    </row>
+    <row r="269" spans="9:9">
+      <c r="I269" s="29"/>
+    </row>
+    <row r="270" spans="9:9">
+      <c r="I270" s="29"/>
+    </row>
+    <row r="271" spans="9:9">
+      <c r="I271" s="29"/>
+    </row>
+    <row r="272" spans="9:9">
+      <c r="I272" s="29"/>
+    </row>
+    <row r="273" spans="9:9">
+      <c r="I273" s="29"/>
+    </row>
+    <row r="274" spans="9:9">
+      <c r="I274" s="29"/>
+    </row>
+    <row r="275" spans="9:9">
+      <c r="I275" s="29"/>
+    </row>
+    <row r="276" spans="9:9">
+      <c r="I276" s="29"/>
+    </row>
+    <row r="277" spans="9:9">
+      <c r="I277" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="A85:O85"/>
+  <mergeCells count="17">
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="H159:L159"/>
+    <mergeCell ref="A165:G165"/>
+    <mergeCell ref="A239:H239"/>
+    <mergeCell ref="H175:N175"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A127:G127"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A85:P85"/>
     <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A93:G93"/>
     <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="A78:M78"/>
+    <mergeCell ref="A16:N16"/>
   </mergeCells>
+  <conditionalFormatting sqref="D244:D255">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0F18CB80-06B0-4556-BF3A-D5D1A1BBA1B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0F18CB80-06B0-4556-BF3A-D5D1A1BBA1B9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D244:D255</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>